--- a/docs/feature-compatibility/FeatureCompatibility.xlsx
+++ b/docs/feature-compatibility/FeatureCompatibility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3b19\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE145ADD-A118-489E-9115-FA35DDF3DF34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D976890-892F-4341-B1F9-E18B3FAA8FC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38445" yWindow="435" windowWidth="28755" windowHeight="16395" firstSheet="2" activeTab="10" xr2:uid="{46F717FF-FE5F-3D4F-A8F5-51784E44D20C}"/>
+    <workbookView xWindow="38445" yWindow="435" windowWidth="28755" windowHeight="16395" firstSheet="10" activeTab="4" xr2:uid="{46F717FF-FE5F-3D4F-A8F5-51784E44D20C}"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21959" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21952" uniqueCount="940">
   <si>
     <t>Resource</t>
   </si>
@@ -1638,6 +1638,9 @@
     <t>tgw_gre_address</t>
   </si>
   <si>
+    <t>2.18.2</t>
+  </si>
+  <si>
     <t>firenet</t>
   </si>
   <si>
@@ -1795,6 +1798,12 @@
   </si>
   <si>
     <t>saas_url_license</t>
+  </si>
+  <si>
+    <t>R2.18.2 : 20840</t>
+  </si>
+  <si>
+    <t>fix for instance association for out-of-controller firewall instance</t>
   </si>
   <si>
     <t>vendor_type</t>
@@ -5541,7 +5550,7 @@
     </row>
     <row r="10" spans="1:14" ht="15.75">
       <c r="A10" s="1" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75">
@@ -5581,7 +5590,7 @@
     </row>
     <row r="12" spans="1:14" ht="15.75">
       <c r="B12" s="16" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>30</v>
@@ -5616,7 +5625,7 @@
     </row>
     <row r="13" spans="1:14" ht="15.75">
       <c r="B13" s="16" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>30</v>
@@ -5651,7 +5660,7 @@
     </row>
     <row r="14" spans="1:14" ht="15.75">
       <c r="B14" s="16" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>30</v>
@@ -5686,7 +5695,7 @@
     </row>
     <row r="15" spans="1:14" ht="15.75">
       <c r="B15" s="32" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>96</v>
@@ -5722,7 +5731,7 @@
         <v>15350</v>
       </c>
       <c r="N15" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75">
@@ -5748,7 +5757,7 @@
         <v>30</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="J16" s="20" t="s">
         <v>30</v>
@@ -5763,7 +5772,7 @@
         <v>17100</v>
       </c>
       <c r="N16" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75">
@@ -5789,7 +5798,7 @@
         <v>30</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="J17" s="20" t="s">
         <v>30</v>
@@ -5824,7 +5833,7 @@
         <v>30</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="J18" s="20" t="s">
         <v>30</v>
@@ -5838,10 +5847,10 @@
     </row>
     <row r="19" spans="1:13" ht="15.75">
       <c r="B19" s="16" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>30</v>
@@ -5859,7 +5868,7 @@
         <v>30</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="J19" s="20" t="s">
         <v>30</v>
@@ -5873,7 +5882,7 @@
     </row>
     <row r="20" spans="1:13" ht="15.75">
       <c r="B20" s="16" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>30</v>
@@ -5894,7 +5903,7 @@
         <v>30</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="J20" s="20" t="s">
         <v>30</v>
@@ -5906,12 +5915,12 @@
         <v>32</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75">
       <c r="B21" s="16" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>30</v>
@@ -5932,7 +5941,7 @@
         <v>30</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="J21" s="20" t="s">
         <v>30</v>
@@ -5946,7 +5955,7 @@
     </row>
     <row r="22" spans="1:13" ht="15.75">
       <c r="B22" s="22" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>58</v>
@@ -5967,7 +5976,7 @@
         <v>58</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="J22" s="20" t="s">
         <v>58</v>
@@ -5987,7 +5996,7 @@
     </row>
     <row r="24" spans="1:13" ht="15.75">
       <c r="A24" s="44" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="K24" s="108">
         <v>17584</v>
@@ -6034,7 +6043,7 @@
     </row>
     <row r="26" spans="1:13" ht="15.75">
       <c r="B26" s="16" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>96</v>
@@ -6069,7 +6078,7 @@
     </row>
     <row r="27" spans="1:13" ht="15.75">
       <c r="B27" s="16" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>96</v>
@@ -6104,7 +6113,7 @@
     </row>
     <row r="28" spans="1:13" ht="15.75">
       <c r="B28" s="16" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>96</v>
@@ -6139,7 +6148,7 @@
     </row>
     <row r="29" spans="1:13" ht="15.75">
       <c r="B29" s="16" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>96</v>
@@ -6174,7 +6183,7 @@
     </row>
     <row r="30" spans="1:13" ht="15.75">
       <c r="B30" s="16" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>96</v>
@@ -6207,12 +6216,12 @@
         <v>32</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75">
       <c r="B31" s="16" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>96</v>
@@ -6247,7 +6256,7 @@
     </row>
     <row r="32" spans="1:13" ht="15.75">
       <c r="B32" s="22" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>96</v>
@@ -6280,7 +6289,7 @@
         <v>32</v>
       </c>
       <c r="M32" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="10" customFormat="1" ht="15.75">
@@ -6291,12 +6300,12 @@
     </row>
     <row r="34" spans="1:13" ht="15.75">
       <c r="A34" s="1" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75">
       <c r="B35" s="16" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>30</v>
@@ -6331,7 +6340,7 @@
     </row>
     <row r="36" spans="1:13" ht="15.75">
       <c r="B36" s="16" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>30</v>
@@ -6366,7 +6375,7 @@
     </row>
     <row r="37" spans="1:13" ht="15.75">
       <c r="B37" s="16" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>30</v>
@@ -6401,7 +6410,7 @@
     </row>
     <row r="38" spans="1:13" ht="15.75">
       <c r="B38" s="16" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>30</v>
@@ -6439,12 +6448,12 @@
     </row>
     <row r="40" spans="1:13" ht="15.75">
       <c r="A40" s="1" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75">
       <c r="B41" s="16" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>30</v>
@@ -6479,7 +6488,7 @@
     </row>
     <row r="42" spans="1:13" ht="15.75">
       <c r="B42" s="16" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>30</v>
@@ -6514,7 +6523,7 @@
     </row>
     <row r="43" spans="1:13" ht="15.75">
       <c r="B43" s="16" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>30</v>
@@ -6549,7 +6558,7 @@
     </row>
     <row r="44" spans="1:13" ht="15.75">
       <c r="B44" s="32" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>96</v>
@@ -6587,7 +6596,7 @@
     </row>
     <row r="45" spans="1:13" ht="15.75">
       <c r="B45" s="16" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>30</v>
@@ -6596,7 +6605,7 @@
         <v>30</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>30</v>
@@ -6623,7 +6632,7 @@
     </row>
     <row r="46" spans="1:13" ht="15.75">
       <c r="B46" s="16" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>30</v>
@@ -6659,10 +6668,10 @@
     </row>
     <row r="47" spans="1:13" ht="15.75">
       <c r="B47" s="32" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>30</v>
@@ -6695,7 +6704,7 @@
     </row>
     <row r="48" spans="1:13" ht="15.75">
       <c r="B48" s="16" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>30</v>
@@ -6730,7 +6739,7 @@
     </row>
     <row r="49" spans="1:13" ht="15.75">
       <c r="B49" s="16" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>30</v>
@@ -6765,7 +6774,7 @@
     </row>
     <row r="50" spans="1:13" ht="15.75">
       <c r="B50" s="16" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>30</v>
@@ -6800,7 +6809,7 @@
     </row>
     <row r="51" spans="1:13" ht="15.75">
       <c r="B51" s="16" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>30</v>
@@ -6835,7 +6844,7 @@
     </row>
     <row r="52" spans="1:13" ht="15.75">
       <c r="B52" s="32" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>223</v>
@@ -6878,7 +6887,7 @@
     </row>
     <row r="54" spans="1:13" ht="15.75">
       <c r="A54" s="38" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="K54" s="108">
         <v>17586</v>
@@ -6889,7 +6898,7 @@
     </row>
     <row r="55" spans="1:13" ht="15.75">
       <c r="B55" s="16" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>96</v>
@@ -6922,12 +6931,12 @@
         <v>32</v>
       </c>
       <c r="M55" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15.75">
       <c r="B56" s="16" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>96</v>
@@ -6962,7 +6971,7 @@
     </row>
     <row r="57" spans="1:13" ht="15.75">
       <c r="B57" s="16" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>96</v>
@@ -6997,7 +7006,7 @@
     </row>
     <row r="58" spans="1:13" ht="15.75">
       <c r="B58" s="16" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>96</v>
@@ -7032,7 +7041,7 @@
     </row>
     <row r="59" spans="1:13" ht="15.75">
       <c r="B59" s="16" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>96</v>
@@ -7068,7 +7077,7 @@
     <row r="60" spans="1:13" ht="15.75"/>
     <row r="61" spans="1:13" ht="15.75">
       <c r="A61" s="38" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="K61" s="109">
         <v>17585</v>
@@ -7114,7 +7123,7 @@
     </row>
     <row r="63" spans="1:13" ht="15.75">
       <c r="B63" s="16" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>226</v>
@@ -7149,7 +7158,7 @@
     </row>
     <row r="65" spans="1:13" ht="15.75">
       <c r="A65" s="28" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="M65">
         <v>18245</v>
@@ -7227,7 +7236,7 @@
     </row>
     <row r="68" spans="1:13" ht="15.75">
       <c r="B68" s="16" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>207</v>
@@ -7290,7 +7299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF18A52-574D-4701-9044-6ED3378CF3B9}">
   <dimension ref="A1:T830"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="K1" sqref="K1:K1048576"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
@@ -7457,7 +7466,7 @@
     </row>
     <row r="10" spans="1:13" ht="15.75">
       <c r="A10" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75">
@@ -7532,7 +7541,7 @@
     </row>
     <row r="13" spans="1:13" ht="15.75">
       <c r="B13" s="16" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>30</v>
@@ -7602,7 +7611,7 @@
     </row>
     <row r="15" spans="1:13" ht="15.75">
       <c r="B15" s="16" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>30</v>
@@ -7640,7 +7649,7 @@
     </row>
     <row r="16" spans="1:13" ht="15.75">
       <c r="B16" s="16" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>30</v>
@@ -7667,18 +7676,18 @@
         <v>30</v>
       </c>
       <c r="K16" s="62" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75">
       <c r="B17" s="16" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>30</v>
@@ -7705,13 +7714,13 @@
         <v>30</v>
       </c>
       <c r="K17" s="62" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15.75">
@@ -7751,7 +7760,7 @@
     </row>
     <row r="19" spans="1:20" ht="15.75">
       <c r="B19" s="32" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>165</v>
@@ -7786,7 +7795,7 @@
     </row>
     <row r="20" spans="1:20" ht="15.75">
       <c r="B20" s="32" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>165</v>
@@ -7821,7 +7830,7 @@
     </row>
     <row r="21" spans="1:20" ht="15.75">
       <c r="B21" s="32" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>165</v>
@@ -7859,10 +7868,10 @@
         <v>192</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>96</v>
@@ -7897,7 +7906,7 @@
     </row>
     <row r="23" spans="1:20" ht="15.75">
       <c r="B23" s="32" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>96</v>
@@ -7935,7 +7944,7 @@
     </row>
     <row r="24" spans="1:20" ht="15.75">
       <c r="B24" s="32" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>96</v>
@@ -7973,7 +7982,7 @@
     </row>
     <row r="25" spans="1:20" ht="15.75">
       <c r="B25" s="32" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>96</v>
@@ -8000,10 +8009,10 @@
         <v>96</v>
       </c>
       <c r="K25" s="66" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="M25" s="44">
         <v>16646</v>
@@ -8038,10 +8047,10 @@
         <v>96</v>
       </c>
       <c r="K26" s="66" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="M26" s="44">
         <v>16646</v>
@@ -8049,7 +8058,7 @@
     </row>
     <row r="27" spans="1:20" ht="15.75">
       <c r="B27" s="101" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>207</v>
@@ -8089,7 +8098,7 @@
     </row>
     <row r="28" spans="1:20" ht="15.75">
       <c r="B28" s="39" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="K28" s="61" t="s">
         <v>32</v>
@@ -8108,10 +8117,10 @@
     </row>
     <row r="30" spans="1:20" ht="15.75">
       <c r="A30" s="38" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="M30" s="44" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="15.75">
@@ -8184,7 +8193,7 @@
     <row r="33" spans="1:13" ht="15.75">
       <c r="A33" s="1"/>
       <c r="B33" s="22" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>165</v>
@@ -8249,7 +8258,7 @@
     </row>
     <row r="35" spans="1:13" ht="15.75">
       <c r="B35" s="22" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>165</v>
@@ -8281,7 +8290,7 @@
     </row>
     <row r="36" spans="1:13" ht="15.75">
       <c r="B36" s="22" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>165</v>
@@ -8313,7 +8322,7 @@
     </row>
     <row r="37" spans="1:13" ht="15.75">
       <c r="B37" s="22" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>165</v>
@@ -8377,7 +8386,7 @@
     </row>
     <row r="39" spans="1:13" ht="15.75">
       <c r="B39" s="22" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>165</v>
@@ -8409,7 +8418,7 @@
     </row>
     <row r="40" spans="1:13" ht="15.75">
       <c r="B40" s="22" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>165</v>
@@ -8442,7 +8451,7 @@
     </row>
     <row r="41" spans="1:13" ht="15.75">
       <c r="B41" s="22" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>165</v>
@@ -8478,10 +8487,10 @@
         <v>192</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>96</v>
@@ -8511,7 +8520,7 @@
     </row>
     <row r="43" spans="1:13" ht="15.75">
       <c r="B43" s="32" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>96</v>
@@ -8552,7 +8561,7 @@
     </row>
     <row r="45" spans="1:13" ht="15.75">
       <c r="A45" s="38" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B45" s="98"/>
     </row>
@@ -8634,7 +8643,7 @@
     <row r="48" spans="1:13" ht="15.75">
       <c r="A48" s="38"/>
       <c r="B48" s="32" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>64</v>
@@ -8706,7 +8715,7 @@
     <row r="50" spans="1:13" ht="15.75">
       <c r="A50" s="44"/>
       <c r="B50" s="32" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>64</v>
@@ -8742,7 +8751,7 @@
     <row r="51" spans="1:13" ht="15.75">
       <c r="A51" s="44"/>
       <c r="B51" s="32" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>64</v>
@@ -8760,7 +8769,7 @@
         <v>64</v>
       </c>
       <c r="H51" s="36" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>64</v>
@@ -8773,13 +8782,13 @@
       </c>
       <c r="L51" s="119"/>
       <c r="M51" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75">
       <c r="A52" s="44"/>
       <c r="B52" s="32" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>200</v>
@@ -8851,7 +8860,7 @@
     </row>
     <row r="54" spans="1:13" ht="15.75">
       <c r="B54" s="22" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>64</v>
@@ -8884,7 +8893,7 @@
     </row>
     <row r="55" spans="1:13" ht="15.75">
       <c r="B55" s="22" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>64</v>
@@ -8917,7 +8926,7 @@
     </row>
     <row r="56" spans="1:13" ht="15.75">
       <c r="B56" s="22" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>64</v>
@@ -8953,10 +8962,10 @@
         <v>192</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C57" s="36" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>96</v>
@@ -8987,7 +8996,7 @@
     </row>
     <row r="58" spans="1:13" ht="15.75">
       <c r="B58" s="32" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>96</v>
@@ -9021,7 +9030,7 @@
     </row>
     <row r="59" spans="1:13" ht="15.75">
       <c r="B59" s="32" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>96</v>
@@ -9055,7 +9064,7 @@
     </row>
     <row r="60" spans="1:13" ht="15.75">
       <c r="B60" s="32" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>96</v>
@@ -9089,7 +9098,7 @@
     </row>
     <row r="61" spans="1:13" ht="15.75">
       <c r="B61" s="39" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>207</v>
@@ -9119,7 +9128,7 @@
     </row>
     <row r="62" spans="1:13" s="10" customFormat="1" ht="15.75">
       <c r="B62" s="32" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>96</v>
@@ -9146,10 +9155,10 @@
         <v>96</v>
       </c>
       <c r="K62" s="66" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="M62" s="84">
         <v>16646</v>
@@ -9184,10 +9193,10 @@
         <v>96</v>
       </c>
       <c r="K63" s="66" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="M63" s="84">
         <v>16646</v>
@@ -9202,7 +9211,7 @@
     </row>
     <row r="65" spans="1:14" ht="15.75">
       <c r="A65" s="38" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="15.75">
@@ -9277,7 +9286,7 @@
     <row r="68" spans="1:14" ht="15.75">
       <c r="A68" s="1"/>
       <c r="B68" s="22" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>64</v>
@@ -9342,7 +9351,7 @@
     </row>
     <row r="70" spans="1:14" ht="15.75">
       <c r="B70" s="22" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>64</v>
@@ -9374,7 +9383,7 @@
     </row>
     <row r="71" spans="1:14" ht="15.75">
       <c r="B71" s="22" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>64</v>
@@ -9392,7 +9401,7 @@
         <v>64</v>
       </c>
       <c r="H71" s="36" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>64</v>
@@ -9404,12 +9413,12 @@
         <v>31</v>
       </c>
       <c r="M71" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="15.75">
       <c r="B72" s="22" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>64</v>
@@ -9427,7 +9436,7 @@
         <v>64</v>
       </c>
       <c r="H72" s="36" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>64</v>
@@ -9473,7 +9482,7 @@
     </row>
     <row r="74" spans="1:14" ht="15.75">
       <c r="B74" s="22" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>64</v>
@@ -9505,7 +9514,7 @@
     </row>
     <row r="75" spans="1:14" ht="15.75">
       <c r="B75" s="22" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>64</v>
@@ -9537,7 +9546,7 @@
     </row>
     <row r="76" spans="1:14" ht="15.75">
       <c r="B76" s="22" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>64</v>
@@ -9572,10 +9581,10 @@
         <v>192</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C77" s="36" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>64</v>
@@ -9602,12 +9611,12 @@
         <v>31</v>
       </c>
       <c r="M77" s="44" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="15.75">
       <c r="B78" s="32" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>64</v>
@@ -9637,12 +9646,12 @@
         <v>31</v>
       </c>
       <c r="M78" s="44" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="15.75">
       <c r="B79" s="39" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C79" s="72" t="s">
         <v>207</v>
@@ -9675,13 +9684,13 @@
         <v>18678</v>
       </c>
       <c r="N79" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="15.75"/>
     <row r="81" spans="1:13" ht="15.75">
       <c r="A81" s="38" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="L81" s="13"/>
       <c r="M81" s="44">
@@ -9750,7 +9759,7 @@
     </row>
     <row r="84" spans="1:13" ht="15.75">
       <c r="B84" s="16" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>239</v>
@@ -9810,7 +9819,7 @@
     </row>
     <row r="86" spans="1:13" ht="15.75">
       <c r="B86" s="16" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>239</v>
@@ -9843,7 +9852,7 @@
     </row>
     <row r="87" spans="1:13" ht="15.75">
       <c r="B87" s="16" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>239</v>
@@ -9870,15 +9879,15 @@
         <v>239</v>
       </c>
       <c r="K87" s="63" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="M87" s="12" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="15.75">
       <c r="B88" s="16" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>239</v>
@@ -9905,10 +9914,10 @@
         <v>239</v>
       </c>
       <c r="K88" s="63" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="M88" s="12" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="15.75">
@@ -9940,12 +9949,12 @@
         <v>239</v>
       </c>
       <c r="K89" s="64" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="15.75">
       <c r="B90" s="32" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>239</v>
@@ -9972,12 +9981,12 @@
         <v>239</v>
       </c>
       <c r="K90" s="64" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="15.75">
       <c r="B91" s="32" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>239</v>
@@ -10004,12 +10013,12 @@
         <v>239</v>
       </c>
       <c r="K91" s="64" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="15.75">
       <c r="B92" s="32" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>239</v>
@@ -10036,7 +10045,7 @@
         <v>239</v>
       </c>
       <c r="K92" s="64" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="15.75">
@@ -10044,10 +10053,10 @@
         <v>192</v>
       </c>
       <c r="B93" s="32" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C93" s="36" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>96</v>
@@ -10077,7 +10086,7 @@
     </row>
     <row r="94" spans="1:13" ht="15.75">
       <c r="B94" s="32" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>96</v>
@@ -10110,7 +10119,7 @@
     </row>
     <row r="95" spans="1:13" ht="15.75">
       <c r="B95" s="32" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>96</v>
@@ -10413,15 +10422,15 @@
     </row>
     <row r="10" spans="1:13" ht="15.75">
       <c r="A10" s="1" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="M10" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75">
       <c r="B11" s="16" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>30</v>
@@ -10457,7 +10466,7 @@
     </row>
     <row r="12" spans="1:13" ht="15.75">
       <c r="B12" s="16" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>30</v>
@@ -10492,7 +10501,7 @@
     </row>
     <row r="13" spans="1:13" ht="15.75">
       <c r="B13" s="39" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>30</v>
@@ -10519,7 +10528,7 @@
         <v>30</v>
       </c>
       <c r="K13" s="62" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="L13" s="20" t="s">
         <v>269</v>
@@ -10527,7 +10536,7 @@
     </row>
     <row r="14" spans="1:13" ht="15.75">
       <c r="B14" s="39" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>30</v>
@@ -10554,7 +10563,7 @@
         <v>30</v>
       </c>
       <c r="K14" s="62" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="L14" s="20" t="s">
         <v>269</v>
@@ -10562,7 +10571,7 @@
     </row>
     <row r="15" spans="1:13" ht="15.75">
       <c r="B15" s="16" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>30</v>
@@ -10597,7 +10606,7 @@
     </row>
     <row r="16" spans="1:13" ht="15.75">
       <c r="B16" s="32" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>242</v>
@@ -10624,18 +10633,18 @@
         <v>242</v>
       </c>
       <c r="K16" s="61" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="M16" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75">
       <c r="B17" s="93" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>242</v>
@@ -10662,15 +10671,15 @@
         <v>242</v>
       </c>
       <c r="K17" s="61" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75">
       <c r="B18" s="93" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>242</v>
@@ -10697,15 +10706,15 @@
         <v>242</v>
       </c>
       <c r="K18" s="61" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75">
       <c r="B19" s="93" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>242</v>
@@ -10732,15 +10741,15 @@
         <v>242</v>
       </c>
       <c r="K19" s="61" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75">
       <c r="B20" s="93" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>242</v>
@@ -10813,16 +10822,16 @@
     </row>
     <row r="22" spans="1:14" ht="15.75">
       <c r="B22" s="105" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>207</v>
@@ -10851,7 +10860,7 @@
     </row>
     <row r="23" spans="1:14" ht="15.75">
       <c r="B23" s="105" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>207</v>
@@ -10881,7 +10890,7 @@
     </row>
     <row r="24" spans="1:14" ht="15.75">
       <c r="B24" s="105" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>207</v>
@@ -10911,7 +10920,7 @@
     </row>
     <row r="25" spans="1:14" ht="15.75">
       <c r="B25" s="105" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>207</v>
@@ -10941,7 +10950,7 @@
     </row>
     <row r="26" spans="1:14" ht="15.75">
       <c r="B26" s="101" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>148</v>
@@ -10964,21 +10973,21 @@
         <v>148</v>
       </c>
       <c r="K26" s="61" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="M26">
         <v>18163</v>
       </c>
       <c r="N26" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75">
       <c r="B27" s="101" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>148</v>
@@ -11001,21 +11010,21 @@
         <v>148</v>
       </c>
       <c r="K27" s="61" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="M27">
         <v>18163</v>
       </c>
       <c r="N27" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75">
       <c r="A29" s="127" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="M29">
         <v>18661</v>
@@ -11023,7 +11032,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="B30" s="16" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>207</v>
@@ -11056,7 +11065,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="B31" s="16" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>207</v>
@@ -11091,7 +11100,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="B32" s="16" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>207</v>
@@ -11126,7 +11135,7 @@
     </row>
     <row r="33" spans="1:13" ht="15.75">
       <c r="B33" s="16" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>207</v>
@@ -11161,7 +11170,7 @@
     </row>
     <row r="34" spans="1:13" ht="15.75">
       <c r="B34" s="16" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>207</v>
@@ -11186,7 +11195,7 @@
     </row>
     <row r="35" spans="1:13" ht="15.75">
       <c r="B35" s="16" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>207</v>
@@ -11211,7 +11220,7 @@
     </row>
     <row r="36" spans="1:13" ht="15.75">
       <c r="B36" s="16" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>207</v>
@@ -11236,7 +11245,7 @@
     </row>
     <row r="37" spans="1:13" ht="15.75">
       <c r="B37" s="16" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>207</v>
@@ -11272,7 +11281,7 @@
     <row r="38" spans="1:13" ht="15.75"/>
     <row r="39" spans="1:13" ht="15.75">
       <c r="A39" s="102" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="L39" s="123"/>
       <c r="M39">
@@ -11281,10 +11290,10 @@
     </row>
     <row r="40" spans="1:13" ht="15.75">
       <c r="A40" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="B40" s="95" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>207</v>
@@ -11319,7 +11328,7 @@
     </row>
     <row r="41" spans="1:13" ht="15.75">
       <c r="B41" s="95" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>207</v>
@@ -11354,10 +11363,10 @@
     </row>
     <row r="42" spans="1:13" ht="15.75">
       <c r="A42" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="B42" s="95" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>207</v>
@@ -11382,10 +11391,10 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="B43" s="95" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>207</v>
@@ -11420,7 +11429,7 @@
     </row>
     <row r="44" spans="1:13">
       <c r="B44" s="95" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>207</v>
@@ -11453,7 +11462,7 @@
         <v>32</v>
       </c>
       <c r="M44" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="10" customFormat="1" ht="15.75">
@@ -11464,7 +11473,7 @@
     </row>
     <row r="46" spans="1:13" ht="15.75">
       <c r="A46" s="102" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="L46" s="123"/>
       <c r="M46">
@@ -11473,10 +11482,10 @@
     </row>
     <row r="47" spans="1:13" ht="15.75">
       <c r="A47" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="B47" s="95" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>207</v>
@@ -11511,7 +11520,7 @@
     </row>
     <row r="48" spans="1:13" ht="15.75">
       <c r="B48" s="95" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>207</v>
@@ -11546,10 +11555,10 @@
     </row>
     <row r="49" spans="1:13" ht="15.75">
       <c r="A49" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="B49" s="95" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>207</v>
@@ -11574,7 +11583,7 @@
     </row>
     <row r="50" spans="1:13">
       <c r="B50" s="95" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>207</v>
@@ -11599,10 +11608,10 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="B51" s="95" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>207</v>
@@ -11635,7 +11644,7 @@
         <v>32</v>
       </c>
       <c r="M51" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
     </row>
     <row r="52" spans="1:13" s="10" customFormat="1" ht="15.75">
@@ -11645,7 +11654,7 @@
     </row>
     <row r="53" spans="1:13" ht="15.75">
       <c r="A53" s="102" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="M53">
         <v>18664</v>
@@ -11653,7 +11662,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="B54" s="95" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>207</v>
@@ -11691,7 +11700,7 @@
         <v>43</v>
       </c>
       <c r="B55" s="95" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>207</v>
@@ -11720,7 +11729,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="B56" s="95" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>207</v>
@@ -11755,7 +11764,7 @@
     </row>
     <row r="57" spans="1:13" ht="15.75">
       <c r="B57" s="95" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>207</v>
@@ -11790,7 +11799,7 @@
     </row>
     <row r="58" spans="1:13" ht="15.75">
       <c r="B58" s="95" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>207</v>
@@ -11831,7 +11840,7 @@
     </row>
     <row r="60" spans="1:13" ht="15.75">
       <c r="A60" s="102" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="M60">
         <v>18666</v>
@@ -11839,7 +11848,7 @@
     </row>
     <row r="61" spans="1:13" ht="15.75">
       <c r="B61" s="95" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>207</v>
@@ -11874,7 +11883,7 @@
     </row>
     <row r="62" spans="1:13" ht="15.75">
       <c r="B62" s="95" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>207</v>
@@ -11909,7 +11918,7 @@
     </row>
     <row r="63" spans="1:13" ht="15.75">
       <c r="B63" s="95" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>207</v>
@@ -11945,7 +11954,7 @@
     <row r="64" spans="1:13" ht="15.75"/>
     <row r="65" spans="1:13" ht="15.75">
       <c r="A65" s="102" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="M65">
         <v>18667</v>
@@ -11953,7 +11962,7 @@
     </row>
     <row r="66" spans="1:13">
       <c r="B66" s="95" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>207</v>
@@ -11988,7 +11997,7 @@
     </row>
     <row r="67" spans="1:13" ht="15.75">
       <c r="B67" s="95" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>207</v>
@@ -12023,7 +12032,7 @@
     </row>
     <row r="68" spans="1:13" ht="15.75">
       <c r="B68" s="95" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>207</v>
@@ -12058,7 +12067,7 @@
     </row>
     <row r="69" spans="1:13" ht="15.75">
       <c r="B69" s="95" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>207</v>
@@ -12099,7 +12108,7 @@
     </row>
     <row r="71" spans="1:13" ht="15.75">
       <c r="A71" s="102" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="L71" s="123"/>
       <c r="M71">
@@ -12108,7 +12117,7 @@
     </row>
     <row r="72" spans="1:13">
       <c r="B72" s="95" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>207</v>
@@ -12176,12 +12185,12 @@
         <v>32</v>
       </c>
       <c r="M73" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="B74" s="95" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>207</v>
@@ -12216,7 +12225,7 @@
     </row>
     <row r="75" spans="1:13" ht="15.75">
       <c r="B75" s="95" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>207</v>
@@ -12251,7 +12260,7 @@
     </row>
     <row r="77" spans="1:13" ht="15.75">
       <c r="A77" s="102" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="L77" s="123"/>
       <c r="M77">
@@ -12330,7 +12339,7 @@
     </row>
     <row r="80" spans="1:13" ht="15.75">
       <c r="B80" s="95" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>207</v>
@@ -12366,30 +12375,30 @@
     <row r="81" spans="1:13" ht="15.75"/>
     <row r="82" spans="1:13" ht="15.75">
       <c r="A82" s="102" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="M82" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="15.75">
       <c r="B83" s="95" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="15.75">
       <c r="B84" s="95" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="B85" s="95" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="15.75">
       <c r="A87" s="102" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="M87">
         <v>19020</v>
@@ -12432,7 +12441,7 @@
     </row>
     <row r="90" spans="1:13" ht="15.75">
       <c r="A90" s="28" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="M90">
         <v>19020</v>
@@ -12440,7 +12449,7 @@
     </row>
     <row r="91" spans="1:13">
       <c r="B91" s="16" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>148</v>
@@ -12465,12 +12474,12 @@
       <c r="K91" s="65"/>
       <c r="L91" s="21"/>
       <c r="M91" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="15.75">
       <c r="B92" s="16" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>148</v>
@@ -12636,7 +12645,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75">
       <c r="A5" s="25" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="B5" s="13"/>
       <c r="D5" s="5"/>
@@ -12673,7 +12682,7 @@
     </row>
     <row r="8" spans="1:12" ht="15.75">
       <c r="A8" s="18" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="15"/>
@@ -13531,12 +13540,12 @@
     </row>
     <row r="39" spans="1:12" ht="15.75">
       <c r="A39" s="1" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.75">
       <c r="B40" s="16" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>30</v>
@@ -13568,7 +13577,7 @@
     </row>
     <row r="41" spans="1:12" ht="15.75">
       <c r="B41" s="16" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>30</v>
@@ -13600,7 +13609,7 @@
     </row>
     <row r="42" spans="1:12" ht="15.75">
       <c r="B42" s="16" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>30</v>
@@ -13632,7 +13641,7 @@
     </row>
     <row r="43" spans="1:12" ht="15.75">
       <c r="B43" s="16" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>30</v>
@@ -13664,7 +13673,7 @@
     </row>
     <row r="44" spans="1:12" ht="15.75">
       <c r="B44" s="16" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>30</v>
@@ -13696,7 +13705,7 @@
     </row>
     <row r="45" spans="1:12" ht="15.75">
       <c r="B45" s="16" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>30</v>
@@ -13731,7 +13740,7 @@
         <v>192</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>30</v>
@@ -13758,10 +13767,10 @@
         <v>30</v>
       </c>
       <c r="K46" s="26" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="L46" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.75">
@@ -13769,7 +13778,7 @@
         <v>192</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>30</v>
@@ -13796,17 +13805,17 @@
         <v>30</v>
       </c>
       <c r="K47" s="26" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75">
       <c r="A49" s="1" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75">
       <c r="B50" s="16" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>30</v>
@@ -13838,7 +13847,7 @@
     </row>
     <row r="51" spans="1:11" ht="15.75">
       <c r="B51" s="16" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>30</v>
@@ -13870,7 +13879,7 @@
     </row>
     <row r="52" spans="1:11" ht="15.75">
       <c r="B52" s="16" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>30</v>
@@ -13902,7 +13911,7 @@
     </row>
     <row r="53" spans="1:11" ht="15.75">
       <c r="B53" s="16" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>30</v>
@@ -13934,7 +13943,7 @@
     </row>
     <row r="54" spans="1:11" ht="15.75">
       <c r="B54" s="16" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>30</v>
@@ -13966,7 +13975,7 @@
     </row>
     <row r="55" spans="1:11" ht="15.75">
       <c r="B55" s="16" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>30</v>
@@ -13998,7 +14007,7 @@
     </row>
     <row r="56" spans="1:11" ht="15.75">
       <c r="B56" s="16" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>30</v>
@@ -14030,7 +14039,7 @@
     </row>
     <row r="57" spans="1:11" ht="15.75">
       <c r="B57" s="16" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>30</v>
@@ -14259,7 +14268,7 @@
     </row>
     <row r="66" spans="1:12" ht="15.75">
       <c r="B66" s="16" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>30</v>
@@ -14294,7 +14303,7 @@
     </row>
     <row r="67" spans="1:12" ht="15.75">
       <c r="B67" s="16" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>30</v>
@@ -14329,7 +14338,7 @@
     </row>
     <row r="68" spans="1:12" ht="15.75">
       <c r="B68" s="16" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>30</v>
@@ -14361,7 +14370,7 @@
     </row>
     <row r="69" spans="1:12" ht="15.75">
       <c r="B69" s="16" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>30</v>
@@ -14393,7 +14402,7 @@
     </row>
     <row r="70" spans="1:12" ht="15.75">
       <c r="B70" s="16" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>30</v>
@@ -14425,7 +14434,7 @@
     </row>
     <row r="71" spans="1:12" ht="15.75">
       <c r="B71" s="16" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>30</v>
@@ -14460,7 +14469,7 @@
     </row>
     <row r="72" spans="1:12" ht="15.75">
       <c r="B72" s="32" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>165</v>
@@ -14492,7 +14501,7 @@
     </row>
     <row r="73" spans="1:12" ht="15.75">
       <c r="B73" s="32" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>165</v>
@@ -14525,7 +14534,7 @@
     <row r="74" spans="1:12" ht="15.75">
       <c r="A74" s="17"/>
       <c r="B74" s="16" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>128</v>
@@ -14558,7 +14567,7 @@
     <row r="75" spans="1:12" ht="15.75">
       <c r="A75" s="17"/>
       <c r="B75" s="16" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>128</v>
@@ -14591,7 +14600,7 @@
     <row r="76" spans="1:12" ht="15.75">
       <c r="A76" s="17"/>
       <c r="B76" s="16" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>128</v>
@@ -14725,7 +14734,7 @@
         <v>31</v>
       </c>
       <c r="L81" s="28" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="15.75">
@@ -14957,7 +14966,7 @@
         <v>30</v>
       </c>
       <c r="K90" s="26" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="15.75">
@@ -15393,15 +15402,15 @@
     </row>
     <row r="107" spans="1:12" ht="15.75">
       <c r="A107" s="1" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="L107" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="15.75">
       <c r="B108" s="16" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>30</v>
@@ -15434,7 +15443,7 @@
     </row>
     <row r="109" spans="1:12" ht="15.75">
       <c r="B109" s="16" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>30</v>
@@ -15466,7 +15475,7 @@
     </row>
     <row r="110" spans="1:12" ht="15.75">
       <c r="B110" s="16" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>30</v>
@@ -15498,7 +15507,7 @@
     </row>
     <row r="111" spans="1:12" ht="15.75">
       <c r="B111" s="16" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>30</v>
@@ -15530,7 +15539,7 @@
     </row>
     <row r="112" spans="1:12" ht="15.75">
       <c r="B112" s="16" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>30</v>
@@ -15562,7 +15571,7 @@
     </row>
     <row r="114" spans="1:12" ht="15.75">
       <c r="A114" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="15.75">
@@ -15601,10 +15610,10 @@
     <row r="116" spans="1:12" ht="15.75">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>313</v>
@@ -15634,10 +15643,10 @@
     <row r="117" spans="1:12" ht="15.75">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>532</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>313</v>
@@ -15667,7 +15676,7 @@
     <row r="118" spans="1:12" ht="15.75">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>313</v>
@@ -15697,13 +15706,13 @@
         <v>31</v>
       </c>
       <c r="L118" s="12" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="15.75">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>313</v>
@@ -15736,7 +15745,7 @@
     <row r="120" spans="1:12" ht="15.75">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>313</v>
@@ -15754,7 +15763,7 @@
         <v>313</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>313</v>
@@ -15769,7 +15778,7 @@
     <row r="121" spans="1:12" ht="15.75">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>313</v>
@@ -15802,7 +15811,7 @@
     <row r="122" spans="1:12" ht="15.75">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>313</v>
@@ -15835,7 +15844,7 @@
     <row r="123" spans="1:12" ht="15.75">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>313</v>
@@ -15868,7 +15877,7 @@
     <row r="124" spans="1:12" ht="15.75">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>313</v>
@@ -15901,7 +15910,7 @@
     <row r="125" spans="1:12" ht="15.75">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>313</v>
@@ -15934,7 +15943,7 @@
     <row r="126" spans="1:12" ht="15.75">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>313</v>
@@ -15966,7 +15975,7 @@
     </row>
     <row r="128" spans="1:12" ht="15.75">
       <c r="A128" s="1" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="15.75">
@@ -16003,7 +16012,7 @@
     </row>
     <row r="130" spans="1:12" ht="15.75">
       <c r="B130" s="16" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>30</v>
@@ -16035,7 +16044,7 @@
     </row>
     <row r="131" spans="1:12" ht="15.75">
       <c r="B131" s="16" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>30</v>
@@ -16067,7 +16076,7 @@
     </row>
     <row r="132" spans="1:12" ht="15.75">
       <c r="B132" s="16" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>30</v>
@@ -16099,7 +16108,7 @@
     </row>
     <row r="133" spans="1:12" ht="15.75">
       <c r="B133" s="16" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>30</v>
@@ -16131,7 +16140,7 @@
     </row>
     <row r="134" spans="1:12" ht="15.75">
       <c r="B134" s="16" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>30</v>
@@ -16163,7 +16172,7 @@
     </row>
     <row r="135" spans="1:12" ht="15.75">
       <c r="B135" s="16" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>30</v>
@@ -16195,10 +16204,10 @@
     </row>
     <row r="136" spans="1:12" ht="15.75">
       <c r="B136" s="16" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>30</v>
@@ -16227,7 +16236,7 @@
     </row>
     <row r="137" spans="1:12" ht="15.75">
       <c r="B137" s="16" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>30</v>
@@ -16257,12 +16266,12 @@
         <v>152</v>
       </c>
       <c r="L137" s="12" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="15.75">
       <c r="B138" s="16" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>30</v>
@@ -16294,7 +16303,7 @@
     </row>
     <row r="139" spans="1:12" ht="15.75">
       <c r="B139" s="22" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>58</v>
@@ -16326,7 +16335,7 @@
     </row>
     <row r="141" spans="1:12" ht="15.75">
       <c r="A141" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="15.75">
@@ -16363,7 +16372,7 @@
     </row>
     <row r="143" spans="1:12" ht="15.75">
       <c r="B143" s="16" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>313</v>
@@ -16395,7 +16404,7 @@
     </row>
     <row r="144" spans="1:12" ht="15.75">
       <c r="B144" s="16" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>313</v>
@@ -16413,7 +16422,7 @@
         <v>313</v>
       </c>
       <c r="H144" s="36" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="I144" s="2" t="s">
         <v>313</v>
@@ -16427,7 +16436,7 @@
     </row>
     <row r="145" spans="1:11" ht="15.75">
       <c r="B145" s="16" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>313</v>
@@ -16459,7 +16468,7 @@
     </row>
     <row r="146" spans="1:11" ht="15.75">
       <c r="B146" s="16" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>313</v>
@@ -16491,7 +16500,7 @@
     </row>
     <row r="147" spans="1:11" ht="15.75">
       <c r="B147" s="16" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>313</v>
@@ -16523,7 +16532,7 @@
     </row>
     <row r="148" spans="1:11" ht="15.75">
       <c r="B148" s="16" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>313</v>
@@ -16546,7 +16555,7 @@
     </row>
     <row r="149" spans="1:11" ht="15.75">
       <c r="B149" s="16" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>313</v>
@@ -16578,7 +16587,7 @@
     </row>
     <row r="150" spans="1:11" ht="15.75">
       <c r="B150" s="16" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>313</v>
@@ -16610,12 +16619,12 @@
     </row>
     <row r="152" spans="1:11" ht="15.75">
       <c r="A152" s="1" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="15.75">
       <c r="B153" s="16" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>30</v>
@@ -16647,7 +16656,7 @@
     </row>
     <row r="154" spans="1:11" ht="15.75">
       <c r="B154" s="16" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>30</v>
@@ -16679,7 +16688,7 @@
     </row>
     <row r="155" spans="1:11" ht="15.75">
       <c r="B155" s="16" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>30</v>
@@ -16711,7 +16720,7 @@
     </row>
     <row r="156" spans="1:11" ht="15.75">
       <c r="B156" s="16" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>30</v>
@@ -16743,12 +16752,12 @@
     </row>
     <row r="158" spans="1:11" ht="15.75">
       <c r="A158" s="1" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="15.75">
       <c r="B159" s="16" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>30</v>
@@ -16780,7 +16789,7 @@
     </row>
     <row r="160" spans="1:11" ht="15.75">
       <c r="B160" s="16" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>30</v>
@@ -16812,7 +16821,7 @@
     </row>
     <row r="161" spans="1:12" ht="15.75">
       <c r="B161" s="16" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>30</v>
@@ -16844,7 +16853,7 @@
     </row>
     <row r="162" spans="1:12" ht="15.75">
       <c r="B162" s="16" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>30</v>
@@ -16853,7 +16862,7 @@
         <v>30</v>
       </c>
       <c r="E162" s="36" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>30</v>
@@ -16877,7 +16886,7 @@
     </row>
     <row r="163" spans="1:12" ht="15.75">
       <c r="B163" s="16" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>30</v>
@@ -16910,7 +16919,7 @@
     </row>
     <row r="164" spans="1:12" ht="15.75">
       <c r="B164" s="16" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>30</v>
@@ -16943,7 +16952,7 @@
     </row>
     <row r="165" spans="1:12" ht="15.75">
       <c r="B165" s="16" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>30</v>
@@ -16975,7 +16984,7 @@
     </row>
     <row r="166" spans="1:12" ht="15.75">
       <c r="B166" s="16" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>30</v>
@@ -17007,7 +17016,7 @@
     </row>
     <row r="167" spans="1:12" ht="15.75">
       <c r="B167" s="16" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>30</v>
@@ -17039,7 +17048,7 @@
     </row>
     <row r="168" spans="1:12" ht="15.75">
       <c r="B168" s="16" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>30</v>
@@ -17300,7 +17309,7 @@
     </row>
     <row r="178" spans="1:12" ht="15.75">
       <c r="B178" s="16" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>30</v>
@@ -19033,7 +19042,7 @@
     </row>
     <row r="233" spans="1:12" ht="15.75">
       <c r="B233" s="16" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>30</v>
@@ -20720,7 +20729,7 @@
     </row>
     <row r="288" spans="1:14" ht="15.75">
       <c r="B288" s="16" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>221</v>
@@ -22419,7 +22428,7 @@
     </row>
     <row r="343" spans="1:12" ht="15.75">
       <c r="B343" s="16" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>58</v>
@@ -23749,7 +23758,7 @@
     </row>
     <row r="391" spans="1:12" ht="15.75">
       <c r="A391" s="28" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="B391" s="16" t="s">
         <v>33</v>
@@ -23962,7 +23971,7 @@
     </row>
     <row r="398" spans="1:12" ht="15.75">
       <c r="B398" s="16" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>64</v>
@@ -25083,7 +25092,7 @@
     <row r="444" spans="1:12" ht="15.75"/>
     <row r="445" spans="1:12" ht="15.75">
       <c r="A445" s="17" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
     </row>
     <row r="446" spans="1:12" ht="15.75">
@@ -25178,7 +25187,7 @@
     </row>
     <row r="449" spans="1:11" ht="15.75">
       <c r="B449" s="16" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>102</v>
@@ -25196,7 +25205,7 @@
         <v>102</v>
       </c>
       <c r="H449" s="4" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="I449" s="2" t="s">
         <v>102</v>
@@ -25208,7 +25217,7 @@
     </row>
     <row r="450" spans="1:11" ht="15.75">
       <c r="B450" s="16" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>102</v>
@@ -25239,13 +25248,13 @@
     <row r="451" spans="1:11" ht="15.75"/>
     <row r="452" spans="1:11" ht="15.75">
       <c r="A452" s="1" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="453" spans="1:11" ht="15.75">
       <c r="A453" s="17"/>
       <c r="B453" s="16" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>289</v>
@@ -25278,7 +25287,7 @@
     <row r="454" spans="1:11" ht="15.75">
       <c r="A454" s="17"/>
       <c r="B454" s="16" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>289</v>
@@ -25287,7 +25296,7 @@
         <v>289</v>
       </c>
       <c r="E454" s="3" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="F454" s="7" t="s">
         <v>289</v>
@@ -25299,19 +25308,19 @@
         <v>289</v>
       </c>
       <c r="I454" s="3" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="J454" s="54" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="K454" s="58" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="455" spans="1:11" ht="15.75">
       <c r="A455" s="17"/>
       <c r="B455" s="16" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>289</v>
@@ -25320,7 +25329,7 @@
         <v>289</v>
       </c>
       <c r="E455" s="3" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="F455" s="7" t="s">
         <v>289</v>
@@ -25332,10 +25341,10 @@
         <v>289</v>
       </c>
       <c r="I455" s="3" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="J455" s="54" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="K455" s="20" t="s">
         <v>31</v>
@@ -25344,7 +25353,7 @@
     <row r="456" spans="1:11" ht="15.75">
       <c r="A456" s="17"/>
       <c r="B456" s="16" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>289</v>
@@ -25353,7 +25362,7 @@
         <v>289</v>
       </c>
       <c r="E456" s="3" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="F456" s="7" t="s">
         <v>289</v>
@@ -25365,10 +25374,10 @@
         <v>289</v>
       </c>
       <c r="I456" s="3" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="J456" s="54" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="K456" s="20" t="s">
         <v>31</v>
@@ -25377,7 +25386,7 @@
     <row r="457" spans="1:11" ht="15.75">
       <c r="A457" s="17"/>
       <c r="B457" s="32" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>165</v>
@@ -25398,23 +25407,23 @@
         <v>165</v>
       </c>
       <c r="I457" s="36" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="J457" s="49" t="s">
         <v>165</v>
       </c>
       <c r="K457" s="58" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="459" spans="1:11" ht="15.75">
       <c r="A459" s="1" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="460" spans="1:11" ht="15.75">
       <c r="B460" s="16" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>30</v>
@@ -25426,7 +25435,7 @@
         <v>30</v>
       </c>
       <c r="F460" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G460" s="7" t="s">
         <v>30</v>
@@ -25447,10 +25456,10 @@
     <row r="461" spans="1:11" ht="15.75">
       <c r="A461" s="1"/>
       <c r="B461" s="16" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C461" s="36" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="D461" s="2" t="s">
         <v>30</v>
@@ -25459,7 +25468,7 @@
         <v>30</v>
       </c>
       <c r="F461" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G461" s="7" t="s">
         <v>30</v>
@@ -25491,7 +25500,7 @@
         <v>30</v>
       </c>
       <c r="F462" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G462" s="7" t="s">
         <v>30</v>
@@ -25524,7 +25533,7 @@
         <v>30</v>
       </c>
       <c r="F463" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G463" s="7" t="s">
         <v>30</v>
@@ -25556,7 +25565,7 @@
         <v>30</v>
       </c>
       <c r="F464" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G464" s="7" t="s">
         <v>30</v>
@@ -25577,19 +25586,19 @@
     <row r="465" spans="1:11" ht="15.75">
       <c r="A465" s="1"/>
       <c r="B465" s="16" t="s">
+        <v>685</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E465" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F465" s="36" t="s">
         <v>682</v>
-      </c>
-      <c r="C465" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D465" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E465" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F465" s="36" t="s">
-        <v>679</v>
       </c>
       <c r="G465" s="7" t="s">
         <v>30</v>
@@ -25609,7 +25618,7 @@
     </row>
     <row r="466" spans="1:11" ht="15.75">
       <c r="B466" s="16" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>30</v>
@@ -25621,7 +25630,7 @@
         <v>30</v>
       </c>
       <c r="F466" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G466" s="7" t="s">
         <v>30</v>
@@ -25651,10 +25660,10 @@
         <v>30</v>
       </c>
       <c r="E467" s="3" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="F467" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G467" s="7" t="s">
         <v>30</v>
@@ -25674,19 +25683,19 @@
     </row>
     <row r="468" spans="1:11" ht="15.75">
       <c r="B468" s="16" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C468" s="36" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="D468" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E468" s="3" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="F468" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G468" s="7" t="s">
         <v>30</v>
@@ -25719,7 +25728,7 @@
         <v>30</v>
       </c>
       <c r="F469" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G469" s="7" t="s">
         <v>30</v>
@@ -25739,7 +25748,7 @@
     </row>
     <row r="470" spans="1:11" ht="15.75">
       <c r="B470" s="16" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>30</v>
@@ -25751,7 +25760,7 @@
         <v>30</v>
       </c>
       <c r="F470" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G470" s="7" t="s">
         <v>30</v>
@@ -25771,7 +25780,7 @@
     </row>
     <row r="471" spans="1:11" ht="15.75">
       <c r="B471" s="16" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>30</v>
@@ -25803,7 +25812,7 @@
     </row>
     <row r="472" spans="1:11" ht="15.75">
       <c r="B472" s="16" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>30</v>
@@ -25835,7 +25844,7 @@
     </row>
     <row r="473" spans="1:11" ht="15.75">
       <c r="B473" s="16" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>30</v>
@@ -25847,7 +25856,7 @@
         <v>30</v>
       </c>
       <c r="F473" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G473" s="7" t="s">
         <v>30</v>
@@ -25862,12 +25871,12 @@
         <v>30</v>
       </c>
       <c r="K473" s="58" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="474" spans="1:11" ht="15.75">
       <c r="B474" s="16" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>30</v>
@@ -25879,7 +25888,7 @@
         <v>30</v>
       </c>
       <c r="F474" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G474" s="7" t="s">
         <v>30</v>
@@ -25894,7 +25903,7 @@
         <v>30</v>
       </c>
       <c r="K474" s="58" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="475" spans="1:11" ht="15.75">
@@ -25911,7 +25920,7 @@
         <v>30</v>
       </c>
       <c r="F475" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G475" s="7" t="s">
         <v>30</v>
@@ -25943,7 +25952,7 @@
         <v>30</v>
       </c>
       <c r="F476" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G476" s="7" t="s">
         <v>30</v>
@@ -25958,12 +25967,12 @@
         <v>30</v>
       </c>
       <c r="K476" s="58" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="477" spans="1:11" ht="15.75">
       <c r="B477" s="16" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>30</v>
@@ -25975,7 +25984,7 @@
         <v>30</v>
       </c>
       <c r="F477" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G477" s="7" t="s">
         <v>30</v>
@@ -25990,44 +25999,44 @@
         <v>30</v>
       </c>
       <c r="K477" s="58" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="478" spans="1:11" ht="15.75">
       <c r="B478" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D478" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E478" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F478" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="G478" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H478" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I478" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J478" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="K478" s="58" t="s">
         <v>693</v>
-      </c>
-      <c r="C478" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D478" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E478" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F478" s="36" t="s">
-        <v>679</v>
-      </c>
-      <c r="G478" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H478" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I478" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J478" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="K478" s="58" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="479" spans="1:11" ht="15.75">
       <c r="B479" s="16" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>30</v>
@@ -26039,7 +26048,7 @@
         <v>30</v>
       </c>
       <c r="F479" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G479" s="7" t="s">
         <v>30</v>
@@ -26054,12 +26063,12 @@
         <v>30</v>
       </c>
       <c r="K479" s="58" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="480" spans="1:11" ht="15.75">
       <c r="B480" s="16" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>30</v>
@@ -26071,7 +26080,7 @@
         <v>30</v>
       </c>
       <c r="F480" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G480" s="7" t="s">
         <v>30</v>
@@ -26086,12 +26095,12 @@
         <v>30</v>
       </c>
       <c r="K480" s="58" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="481" spans="1:11" ht="15.75">
       <c r="B481" s="16" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>30</v>
@@ -26103,7 +26112,7 @@
         <v>30</v>
       </c>
       <c r="F481" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G481" s="7" t="s">
         <v>30</v>
@@ -26118,12 +26127,12 @@
         <v>30</v>
       </c>
       <c r="K481" s="58" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="482" spans="1:11" ht="15.75">
       <c r="B482" s="16" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>30</v>
@@ -26135,7 +26144,7 @@
         <v>30</v>
       </c>
       <c r="F482" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G482" s="7" t="s">
         <v>30</v>
@@ -26150,12 +26159,12 @@
         <v>30</v>
       </c>
       <c r="K482" s="58" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="483" spans="1:11" ht="15.75">
       <c r="B483" s="16" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>30</v>
@@ -26167,7 +26176,7 @@
         <v>30</v>
       </c>
       <c r="F483" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G483" s="7" t="s">
         <v>30</v>
@@ -26182,12 +26191,12 @@
         <v>30</v>
       </c>
       <c r="K483" s="58" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="484" spans="1:11" ht="15.75">
       <c r="B484" s="16" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>30</v>
@@ -26199,7 +26208,7 @@
         <v>30</v>
       </c>
       <c r="F484" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G484" s="7" t="s">
         <v>30</v>
@@ -26214,12 +26223,12 @@
         <v>30</v>
       </c>
       <c r="K484" s="58" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="485" spans="1:11" ht="15.75">
       <c r="B485" s="16" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>30</v>
@@ -26246,12 +26255,12 @@
         <v>30</v>
       </c>
       <c r="K485" s="58" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="486" spans="1:11" ht="15.75">
       <c r="B486" s="16" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>30</v>
@@ -26278,12 +26287,12 @@
         <v>30</v>
       </c>
       <c r="K486" s="58" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="487" spans="1:11" ht="15.75">
       <c r="B487" s="16" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>30</v>
@@ -26310,12 +26319,12 @@
         <v>30</v>
       </c>
       <c r="K487" s="58" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="488" spans="1:11" ht="15.75">
       <c r="B488" s="16" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>30</v>
@@ -26342,12 +26351,12 @@
         <v>30</v>
       </c>
       <c r="K488" s="58" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="489" spans="1:11" ht="15.75">
       <c r="B489" s="16" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>30</v>
@@ -26359,7 +26368,7 @@
         <v>30</v>
       </c>
       <c r="F489" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G489" s="7" t="s">
         <v>30</v>
@@ -26374,12 +26383,12 @@
         <v>30</v>
       </c>
       <c r="K489" s="58" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="490" spans="1:11" ht="15.75">
       <c r="B490" s="16" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>30</v>
@@ -26406,7 +26415,7 @@
         <v>30</v>
       </c>
       <c r="K490" s="58" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="492" spans="1:11" ht="15.75">
@@ -26739,7 +26748,7 @@
     </row>
     <row r="503" spans="1:12" ht="15.75">
       <c r="B503" s="16" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>30</v>
@@ -26771,10 +26780,10 @@
     </row>
     <row r="504" spans="1:12" ht="15.75">
       <c r="A504" s="28" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="B504" s="39" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="C504" s="10"/>
       <c r="D504" s="10"/>
@@ -26948,7 +26957,7 @@
         <v>31</v>
       </c>
       <c r="L509" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
     </row>
     <row r="510" spans="1:12" ht="15.75">
@@ -27552,7 +27561,7 @@
     </row>
     <row r="530" spans="1:12" ht="15.75">
       <c r="B530" s="16" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>30</v>
@@ -28374,7 +28383,7 @@
     </row>
     <row r="556" spans="1:12" ht="15.75">
       <c r="B556" s="16" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>30</v>
@@ -29191,7 +29200,7 @@
     </row>
     <row r="582" spans="1:12" ht="15.75">
       <c r="B582" s="16" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C582" s="2" t="s">
         <v>58</v>
@@ -29675,12 +29684,12 @@
     </row>
     <row r="597" spans="1:12" ht="15.75">
       <c r="A597" s="1" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="598" spans="1:12" ht="15.75">
       <c r="B598" s="16" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C598" s="2" t="s">
         <v>30</v>
@@ -29712,7 +29721,7 @@
     </row>
     <row r="599" spans="1:12" ht="15.75">
       <c r="B599" s="16" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C599" s="2" t="s">
         <v>30</v>
@@ -29744,7 +29753,7 @@
     </row>
     <row r="600" spans="1:12" ht="15.75">
       <c r="B600" s="16" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C600" s="2" t="s">
         <v>30</v>
@@ -30139,7 +30148,7 @@
     </row>
     <row r="614" spans="1:13" ht="15.75">
       <c r="B614" s="22" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C614" s="2" t="s">
         <v>30</v>
@@ -31071,7 +31080,7 @@
     </row>
     <row r="644" spans="1:12" ht="15.75">
       <c r="B644" s="22" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>30</v>
@@ -32039,7 +32048,7 @@
     </row>
     <row r="674" spans="1:12" ht="15.75">
       <c r="B674" s="22" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C674" s="2" t="s">
         <v>58</v>
@@ -32890,7 +32899,7 @@
         <v>217</v>
       </c>
       <c r="L700" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
     </row>
     <row r="701" spans="1:12" ht="15.75">
@@ -32995,7 +33004,7 @@
     </row>
     <row r="704" spans="1:12" ht="15.75">
       <c r="B704" s="16" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C704" s="2" t="s">
         <v>58</v>
@@ -33652,10 +33661,10 @@
     </row>
     <row r="725" spans="1:11" ht="15.75">
       <c r="A725" s="28" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="B725" s="39" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="C725" s="10"/>
       <c r="D725" s="10"/>
@@ -33669,10 +33678,10 @@
     </row>
     <row r="726" spans="1:11" ht="15.75">
       <c r="A726" s="28" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="B726" s="39" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="C726" s="10"/>
       <c r="D726" s="10"/>
@@ -33686,12 +33695,12 @@
     </row>
     <row r="728" spans="1:11" ht="15.75">
       <c r="A728" s="1" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="729" spans="1:11" ht="15.75">
       <c r="B729" s="16" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C729" s="2" t="s">
         <v>30</v>
@@ -33723,7 +33732,7 @@
     </row>
     <row r="730" spans="1:11" ht="15.75">
       <c r="B730" s="16" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C730" s="2" t="s">
         <v>30</v>
@@ -33755,7 +33764,7 @@
     </row>
     <row r="731" spans="1:11" ht="15.75">
       <c r="B731" s="16" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C731" s="2" t="s">
         <v>30</v>
@@ -34088,7 +34097,7 @@
     </row>
     <row r="744" spans="1:12" ht="15.75">
       <c r="A744" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="745" spans="1:12" ht="15.75">
@@ -34157,7 +34166,7 @@
     </row>
     <row r="747" spans="1:12" ht="15.75">
       <c r="B747" s="16" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C747" s="2" t="s">
         <v>30</v>
@@ -34221,7 +34230,7 @@
     </row>
     <row r="749" spans="1:12" ht="15.75">
       <c r="B749" s="16" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C749" s="2" t="s">
         <v>30</v>
@@ -34256,7 +34265,7 @@
     </row>
     <row r="750" spans="1:12" ht="15.75">
       <c r="B750" s="16" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C750" s="2" t="s">
         <v>30</v>
@@ -34283,15 +34292,15 @@
         <v>30</v>
       </c>
       <c r="K750" s="56" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="L750" s="12" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="751" spans="1:12" ht="15.75">
       <c r="B751" s="16" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C751" s="2" t="s">
         <v>30</v>
@@ -34318,10 +34327,10 @@
         <v>30</v>
       </c>
       <c r="K751" s="56" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="L751" s="12" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="752" spans="1:12" ht="15.75">
@@ -34358,7 +34367,7 @@
     </row>
     <row r="753" spans="1:12" ht="15.75">
       <c r="B753" s="32" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C753" s="5" t="s">
         <v>165</v>
@@ -34390,7 +34399,7 @@
     </row>
     <row r="754" spans="1:12" ht="15.75">
       <c r="B754" s="32" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C754" s="5" t="s">
         <v>165</v>
@@ -34422,7 +34431,7 @@
     </row>
     <row r="755" spans="1:12" ht="15.75">
       <c r="B755" s="32" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C755" s="5" t="s">
         <v>165</v>
@@ -34457,10 +34466,10 @@
         <v>192</v>
       </c>
       <c r="B756" s="32" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C756" s="36" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D756" s="5" t="s">
         <v>165</v>
@@ -34487,12 +34496,12 @@
         <v>31</v>
       </c>
       <c r="L756" s="28" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="757" spans="1:12" ht="15.75">
       <c r="B757" s="32" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C757" s="5" t="s">
         <v>165</v>
@@ -34522,12 +34531,12 @@
         <v>31</v>
       </c>
       <c r="L757" s="28" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="759" spans="1:12" ht="15.75">
       <c r="A759" s="38" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="760" spans="1:12" ht="15.75">
@@ -34599,7 +34608,7 @@
     <row r="762" spans="1:12" ht="15.75">
       <c r="A762" s="1"/>
       <c r="B762" s="22" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C762" s="2" t="s">
         <v>165</v>
@@ -34664,7 +34673,7 @@
     </row>
     <row r="764" spans="1:12" ht="15.75">
       <c r="B764" s="22" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C764" s="5" t="s">
         <v>165</v>
@@ -34696,7 +34705,7 @@
     </row>
     <row r="765" spans="1:12" ht="15.75">
       <c r="B765" s="22" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C765" s="5" t="s">
         <v>165</v>
@@ -34728,7 +34737,7 @@
     </row>
     <row r="766" spans="1:12" ht="15.75">
       <c r="B766" s="22" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C766" s="5" t="s">
         <v>165</v>
@@ -34792,7 +34801,7 @@
     </row>
     <row r="768" spans="1:12" ht="15.75">
       <c r="B768" s="22" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C768" s="2" t="s">
         <v>165</v>
@@ -34824,7 +34833,7 @@
     </row>
     <row r="769" spans="1:12" ht="15.75">
       <c r="B769" s="22" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C769" s="2" t="s">
         <v>165</v>
@@ -34856,7 +34865,7 @@
     </row>
     <row r="770" spans="1:12" ht="15.75">
       <c r="B770" s="22" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C770" s="2" t="s">
         <v>165</v>
@@ -34891,10 +34900,10 @@
         <v>192</v>
       </c>
       <c r="B771" s="32" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C771" s="36" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D771" s="5" t="s">
         <v>165</v>
@@ -34921,12 +34930,12 @@
         <v>31</v>
       </c>
       <c r="L771" s="28" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="772" spans="1:12" ht="15.75">
       <c r="B772" s="32" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C772" s="5" t="s">
         <v>165</v>
@@ -34956,7 +34965,7 @@
         <v>31</v>
       </c>
       <c r="L772" s="28" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="773" spans="1:12" s="10" customFormat="1" ht="15.75">
@@ -34967,12 +34976,12 @@
     </row>
     <row r="774" spans="1:12" ht="15.75">
       <c r="A774" s="17" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
     </row>
     <row r="775" spans="1:12" ht="15.75">
       <c r="A775" s="28" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="B775" s="22" t="s">
         <v>33</v>
@@ -35044,7 +35053,7 @@
     <row r="777" spans="1:12" ht="15.75">
       <c r="A777" s="1"/>
       <c r="B777" s="22" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C777" s="2" t="s">
         <v>64</v>
@@ -35109,7 +35118,7 @@
     </row>
     <row r="779" spans="1:12" ht="15.75">
       <c r="B779" s="22" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C779" s="2" t="s">
         <v>64</v>
@@ -35141,7 +35150,7 @@
     </row>
     <row r="780" spans="1:12" ht="15.75">
       <c r="B780" s="22" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C780" s="5" t="s">
         <v>64</v>
@@ -35159,7 +35168,7 @@
         <v>64</v>
       </c>
       <c r="H780" s="4" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="I780" s="5" t="s">
         <v>64</v>
@@ -35171,12 +35180,12 @@
         <v>31</v>
       </c>
       <c r="L780" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="781" spans="1:12" ht="15.75">
       <c r="B781" s="22" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C781" s="5" t="s">
         <v>64</v>
@@ -35194,7 +35203,7 @@
         <v>64</v>
       </c>
       <c r="H781" s="4" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="I781" s="5" t="s">
         <v>64</v>
@@ -35240,7 +35249,7 @@
     </row>
     <row r="783" spans="1:12" ht="15.75">
       <c r="B783" s="22" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C783" s="5" t="s">
         <v>64</v>
@@ -35272,7 +35281,7 @@
     </row>
     <row r="784" spans="1:12" ht="15.75">
       <c r="B784" s="22" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C784" s="5" t="s">
         <v>64</v>
@@ -35304,7 +35313,7 @@
     </row>
     <row r="785" spans="1:12" ht="15.75">
       <c r="B785" s="22" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C785" s="5" t="s">
         <v>64</v>
@@ -35339,10 +35348,10 @@
         <v>192</v>
       </c>
       <c r="B786" s="32" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C786" s="36" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D786" s="5" t="s">
         <v>64</v>
@@ -35369,12 +35378,12 @@
         <v>31</v>
       </c>
       <c r="L786" s="28" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="787" spans="1:12" ht="15.75">
       <c r="B787" s="32" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C787" s="5" t="s">
         <v>64</v>
@@ -35404,7 +35413,7 @@
         <v>31</v>
       </c>
       <c r="L787" s="28" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="788" spans="1:12" s="10" customFormat="1" ht="15.75">
@@ -35415,12 +35424,12 @@
     </row>
     <row r="789" spans="1:12" ht="15.75">
       <c r="A789" s="17" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="790" spans="1:12" ht="15.75">
       <c r="A790" s="17" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="B790" s="22" t="s">
         <v>33</v>
@@ -35492,7 +35501,7 @@
     <row r="792" spans="1:12" ht="15.75">
       <c r="A792" s="1"/>
       <c r="B792" s="22" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C792" s="2" t="s">
         <v>64</v>
@@ -35557,7 +35566,7 @@
     </row>
     <row r="794" spans="1:12" ht="15.75">
       <c r="B794" s="22" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C794" s="2" t="s">
         <v>64</v>
@@ -35589,7 +35598,7 @@
     </row>
     <row r="795" spans="1:12" ht="15.75">
       <c r="B795" s="22" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C795" s="5" t="s">
         <v>64</v>
@@ -35607,7 +35616,7 @@
         <v>64</v>
       </c>
       <c r="H795" s="4" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="I795" s="5" t="s">
         <v>64</v>
@@ -35619,12 +35628,12 @@
         <v>31</v>
       </c>
       <c r="L795" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="796" spans="1:12" ht="15.75">
       <c r="B796" s="22" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C796" s="5" t="s">
         <v>64</v>
@@ -35642,7 +35651,7 @@
         <v>64</v>
       </c>
       <c r="H796" s="4" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="I796" s="5" t="s">
         <v>64</v>
@@ -35688,7 +35697,7 @@
     </row>
     <row r="798" spans="1:12" ht="15.75">
       <c r="B798" s="22" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C798" s="5" t="s">
         <v>64</v>
@@ -35720,7 +35729,7 @@
     </row>
     <row r="799" spans="1:12" ht="15.75">
       <c r="B799" s="22" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C799" s="5" t="s">
         <v>64</v>
@@ -35752,7 +35761,7 @@
     </row>
     <row r="800" spans="1:12" ht="15.75">
       <c r="B800" s="22" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C800" s="5" t="s">
         <v>64</v>
@@ -35787,10 +35796,10 @@
         <v>192</v>
       </c>
       <c r="B801" s="32" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C801" s="36" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D801" s="5" t="s">
         <v>64</v>
@@ -35817,12 +35826,12 @@
         <v>31</v>
       </c>
       <c r="L801" s="28" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="802" spans="1:12" ht="15.75">
       <c r="B802" s="32" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C802" s="5" t="s">
         <v>64</v>
@@ -35852,18 +35861,18 @@
         <v>31</v>
       </c>
       <c r="L802" s="28" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="804" spans="1:12" ht="15.75"/>
     <row r="805" spans="1:12" ht="15.75">
       <c r="A805" s="1" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
     </row>
     <row r="806" spans="1:12" ht="15.75">
       <c r="B806" s="16" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C806" s="2" t="s">
         <v>30</v>
@@ -35895,7 +35904,7 @@
     </row>
     <row r="807" spans="1:12" ht="15.75">
       <c r="B807" s="16" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C807" s="2" t="s">
         <v>30</v>
@@ -35927,7 +35936,7 @@
     </row>
     <row r="808" spans="1:12" ht="15.75">
       <c r="B808" s="16" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C808" s="2" t="s">
         <v>30</v>
@@ -35959,7 +35968,7 @@
     </row>
     <row r="809" spans="1:12" ht="15.75">
       <c r="B809" s="16" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="C809" s="2" t="s">
         <v>30</v>
@@ -35991,7 +36000,7 @@
     </row>
     <row r="810" spans="1:12" ht="15.75">
       <c r="B810" s="16" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="C810" s="2" t="s">
         <v>30</v>
@@ -36023,7 +36032,7 @@
     </row>
     <row r="811" spans="1:12" ht="15.75">
       <c r="B811" s="16" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="C811" s="2" t="s">
         <v>30</v>
@@ -36055,7 +36064,7 @@
     </row>
     <row r="812" spans="1:12" ht="15.75">
       <c r="B812" s="16" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="C812" s="2" t="s">
         <v>30</v>
@@ -36087,7 +36096,7 @@
     </row>
     <row r="813" spans="1:12" ht="15.75">
       <c r="B813" s="16" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="C813" s="2" t="s">
         <v>30</v>
@@ -36119,7 +36128,7 @@
     </row>
     <row r="815" spans="1:12" ht="15.75">
       <c r="A815" s="1" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="816" spans="1:12" ht="15.75">
@@ -36220,7 +36229,7 @@
     </row>
     <row r="819" spans="1:11" ht="15.75">
       <c r="B819" s="16" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="C819" s="2" t="s">
         <v>30</v>
@@ -36252,7 +36261,7 @@
     </row>
     <row r="820" spans="1:11" ht="15.75">
       <c r="B820" s="16" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C820" s="2" t="s">
         <v>30</v>
@@ -36284,7 +36293,7 @@
     </row>
     <row r="822" spans="1:11" ht="15.75">
       <c r="A822" s="1" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="823" spans="1:11" ht="15.75">
@@ -73001,9 +73010,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94690D02-87A0-4DBD-A9C1-12B5113815E8}">
   <dimension ref="A1:N727"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="9" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -73104,7 +73113,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>85</v>
+        <v>530</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" t="s">
@@ -73168,7 +73177,7 @@
     </row>
     <row r="10" spans="1:13" ht="15.75">
       <c r="A10" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75">
@@ -73210,10 +73219,10 @@
     <row r="12" spans="1:13" ht="15.75">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>313</v>
@@ -73243,10 +73252,10 @@
     <row r="13" spans="1:13" ht="15.75">
       <c r="A13" s="1"/>
       <c r="B13" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>532</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>313</v>
@@ -73279,7 +73288,7 @@
     <row r="14" spans="1:13" ht="15.75">
       <c r="A14" s="1"/>
       <c r="B14" s="16" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>313</v>
@@ -73312,13 +73321,13 @@
         <v>32</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75">
       <c r="A15" s="1"/>
       <c r="B15" s="16" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>313</v>
@@ -73354,7 +73363,7 @@
     <row r="16" spans="1:13" ht="15.75">
       <c r="A16" s="1"/>
       <c r="B16" s="16" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>313</v>
@@ -73372,7 +73381,7 @@
         <v>313</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>313</v>
@@ -73387,7 +73396,7 @@
     <row r="17" spans="1:13" ht="15.75">
       <c r="A17" s="1"/>
       <c r="B17" s="16" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>313</v>
@@ -73423,7 +73432,7 @@
     <row r="18" spans="1:13" ht="15.75">
       <c r="A18" s="1"/>
       <c r="B18" s="16" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>313</v>
@@ -73459,7 +73468,7 @@
     <row r="19" spans="1:13" ht="15.75">
       <c r="A19" s="1"/>
       <c r="B19" s="16" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>313</v>
@@ -73495,7 +73504,7 @@
     <row r="20" spans="1:13" ht="15.75">
       <c r="A20" s="1"/>
       <c r="B20" s="16" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>313</v>
@@ -73531,7 +73540,7 @@
     <row r="21" spans="1:13" ht="15.75">
       <c r="A21" s="1"/>
       <c r="B21" s="16" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>313</v>
@@ -73567,7 +73576,7 @@
     <row r="22" spans="1:13" ht="15.75">
       <c r="A22" s="1"/>
       <c r="B22" s="16" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>313</v>
@@ -73602,7 +73611,7 @@
     </row>
     <row r="24" spans="1:13" ht="15.75">
       <c r="A24" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75">
@@ -73642,7 +73651,7 @@
     </row>
     <row r="26" spans="1:13" ht="15.75">
       <c r="B26" s="16" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>313</v>
@@ -73677,7 +73686,7 @@
     </row>
     <row r="27" spans="1:13" ht="15.75">
       <c r="B27" s="16" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>313</v>
@@ -73695,7 +73704,7 @@
         <v>313</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>313</v>
@@ -73712,7 +73721,7 @@
     </row>
     <row r="28" spans="1:13" ht="15.75">
       <c r="B28" s="16" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>313</v>
@@ -73747,7 +73756,7 @@
     </row>
     <row r="29" spans="1:13" ht="15.75">
       <c r="B29" s="16" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>313</v>
@@ -73782,7 +73791,7 @@
     </row>
     <row r="30" spans="1:13" ht="15.75">
       <c r="B30" s="16" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>313</v>
@@ -73850,7 +73859,7 @@
     </row>
     <row r="32" spans="1:13" ht="15.75">
       <c r="B32" s="32" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>155</v>
@@ -73883,12 +73892,12 @@
         <v>32</v>
       </c>
       <c r="M32" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75">
       <c r="B33" s="16" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>313</v>
@@ -73938,7 +73947,7 @@
         <v>200</v>
       </c>
       <c r="M34" s="44" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75">
@@ -73974,12 +73983,12 @@
       </c>
       <c r="L35" s="72"/>
       <c r="M35" s="44" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75">
-      <c r="B36" s="101" t="s">
-        <v>556</v>
+      <c r="B36" s="105" t="s">
+        <v>557</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>148</v>
@@ -73988,7 +73997,7 @@
         <v>148</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
@@ -74007,12 +74016,12 @@
         <v>20092</v>
       </c>
       <c r="N36" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75">
       <c r="A37" s="84" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B37" s="37"/>
       <c r="C37" s="10"/>
@@ -74025,18 +74034,18 @@
       <c r="J37" s="10"/>
       <c r="K37" s="63"/>
       <c r="M37" s="84" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N37" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.75">
       <c r="A38" s="44" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>313</v>
@@ -74072,7 +74081,7 @@
     <row r="39" spans="1:14" ht="15.75">
       <c r="A39" s="44"/>
       <c r="B39" s="32" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>313</v>
@@ -74107,10 +74116,10 @@
     </row>
     <row r="40" spans="1:14" ht="15.75">
       <c r="A40" s="44" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>78</v>
@@ -74138,7 +74147,7 @@
     <row r="41" spans="1:14" ht="15.75">
       <c r="A41" s="44"/>
       <c r="B41" s="32" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>78</v>
@@ -74165,7 +74174,7 @@
     <row r="42" spans="1:14" ht="15.75">
       <c r="A42" s="44"/>
       <c r="B42" s="32" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>78</v>
@@ -74189,15 +74198,15 @@
       </c>
       <c r="K42" s="63"/>
       <c r="M42" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75">
       <c r="A43" s="44" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>78</v>
@@ -74224,7 +74233,7 @@
     <row r="44" spans="1:14" ht="15.75">
       <c r="A44" s="44"/>
       <c r="B44" s="32" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>78</v>
@@ -74252,7 +74261,7 @@
     <row r="45" spans="1:14" ht="15.75">
       <c r="A45" s="44"/>
       <c r="B45" s="32" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>78</v>
@@ -74278,10 +74287,10 @@
     </row>
     <row r="46" spans="1:14" ht="15.75">
       <c r="A46" s="44" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>78</v>
@@ -74305,13 +74314,13 @@
       </c>
       <c r="K46" s="63"/>
       <c r="M46" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.75">
       <c r="A47" s="44"/>
       <c r="B47" s="32" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>78</v>
@@ -74334,7 +74343,7 @@
     <row r="48" spans="1:14" ht="15.75">
       <c r="A48" s="44"/>
       <c r="B48" s="32" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>78</v>
@@ -74357,13 +74366,13 @@
       <c r="K48" s="63"/>
       <c r="L48" s="107"/>
       <c r="M48" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="15.75">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15.75">
       <c r="A49" s="44"/>
       <c r="B49" s="32" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>78</v>
@@ -74388,15 +74397,15 @@
       <c r="K49" s="63"/>
       <c r="L49" s="107"/>
       <c r="M49" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="15.75">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15.75">
       <c r="A50" s="44" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>78</v>
@@ -74417,10 +74426,10 @@
       <c r="K50" s="63"/>
       <c r="L50" s="107"/>
     </row>
-    <row r="51" spans="1:13" ht="15.75">
+    <row r="51" spans="1:14" ht="15.75">
       <c r="A51" s="44"/>
       <c r="B51" s="32" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>78</v>
@@ -74444,12 +74453,12 @@
       </c>
       <c r="K51" s="63"/>
     </row>
-    <row r="52" spans="1:13" ht="15.75">
+    <row r="52" spans="1:14" ht="15.75">
       <c r="A52" s="44" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>78</v>
@@ -74474,13 +74483,13 @@
       <c r="K52" s="63"/>
       <c r="L52" s="107"/>
       <c r="M52" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="15.75">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15.75">
       <c r="A53" s="44"/>
       <c r="B53" s="32" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>78</v>
@@ -74502,13 +74511,13 @@
       </c>
       <c r="K53" s="63"/>
       <c r="M53" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="15.75">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15.75">
       <c r="A54" s="44"/>
       <c r="B54" s="32" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>78</v>
@@ -74530,10 +74539,10 @@
       </c>
       <c r="K54" s="63"/>
     </row>
-    <row r="55" spans="1:13" ht="15.75">
+    <row r="55" spans="1:14" ht="15.75">
       <c r="A55" s="44"/>
       <c r="B55" s="32" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>78</v>
@@ -74555,13 +74564,13 @@
       </c>
       <c r="K55" s="63"/>
       <c r="M55" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="15.75">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15.75">
       <c r="A56" s="44"/>
       <c r="B56" s="32" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>78</v>
@@ -74583,23 +74592,23 @@
       </c>
       <c r="K56" s="63"/>
       <c r="M56" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="15.75">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75">
       <c r="A58" s="44" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M58" s="44">
         <v>18090</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.75">
-      <c r="B59" s="16" t="s">
+    <row r="59" spans="1:14" ht="15.75">
+      <c r="B59" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>78</v>
+      <c r="C59" s="3" t="s">
+        <v>584</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>78</v>
@@ -74628,14 +74637,18 @@
       <c r="L59" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="15.75">
-      <c r="B60" s="16" t="s">
-        <v>546</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="M59">
+        <v>20840</v>
+      </c>
+      <c r="N59" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15.75">
+      <c r="B60" s="39" t="s">
+        <v>547</v>
+      </c>
+      <c r="C60" s="3"/>
       <c r="D60" s="2" t="s">
         <v>78</v>
       </c>
@@ -74664,13 +74677,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.75">
-      <c r="B61" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>78</v>
-      </c>
+    <row r="61" spans="1:14" ht="15.75">
+      <c r="B61" s="39" t="s">
+        <v>586</v>
+      </c>
+      <c r="C61" s="3"/>
       <c r="D61" s="2" t="s">
         <v>78</v>
       </c>
@@ -74693,13 +74704,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.75">
-      <c r="B62" s="16" t="s">
-        <v>547</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>78</v>
-      </c>
+    <row r="62" spans="1:14" ht="15.75">
+      <c r="B62" s="39" t="s">
+        <v>548</v>
+      </c>
+      <c r="C62" s="3"/>
       <c r="D62" s="2" t="s">
         <v>78</v>
       </c>
@@ -74728,13 +74737,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.75">
-      <c r="B63" s="16" t="s">
-        <v>584</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>78</v>
-      </c>
+    <row r="63" spans="1:14" ht="15.75">
+      <c r="B63" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="C63" s="3"/>
       <c r="D63" s="2" t="s">
         <v>78</v>
       </c>
@@ -74757,13 +74764,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.75">
-      <c r="B64" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>78</v>
-      </c>
+    <row r="64" spans="1:14" ht="15.75">
+      <c r="B64" s="39" t="s">
+        <v>588</v>
+      </c>
+      <c r="C64" s="3"/>
       <c r="D64" s="2" t="s">
         <v>78</v>
       </c>
@@ -74793,12 +74798,10 @@
       </c>
     </row>
     <row r="65" spans="2:12" ht="15.75">
-      <c r="B65" s="16" t="s">
-        <v>586</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="B65" s="39" t="s">
+        <v>589</v>
+      </c>
+      <c r="C65" s="3"/>
       <c r="D65" s="2" t="s">
         <v>78</v>
       </c>
@@ -74828,12 +74831,10 @@
       </c>
     </row>
     <row r="66" spans="2:12" ht="15.75">
-      <c r="B66" s="16" t="s">
-        <v>587</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="B66" s="39" t="s">
+        <v>590</v>
+      </c>
+      <c r="C66" s="3"/>
       <c r="D66" s="2" t="s">
         <v>78</v>
       </c>
@@ -74863,12 +74864,10 @@
       </c>
     </row>
     <row r="67" spans="2:12" ht="15.75">
-      <c r="B67" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="B67" s="39" t="s">
+        <v>591</v>
+      </c>
+      <c r="C67" s="3"/>
       <c r="D67" s="2" t="s">
         <v>78</v>
       </c>
@@ -75142,7 +75141,7 @@
   <dimension ref="A1:M805"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="M40" sqref="M40"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
@@ -75308,7 +75307,7 @@
     </row>
     <row r="10" spans="1:13" ht="15.75">
       <c r="A10" s="38" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="K10" s="108">
         <v>16053</v>
@@ -75319,7 +75318,7 @@
     </row>
     <row r="11" spans="1:13" ht="15.75">
       <c r="B11" s="16" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>263</v>
@@ -75346,7 +75345,7 @@
         <v>263</v>
       </c>
       <c r="K11" s="61" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="L11" s="20" t="s">
         <v>32</v>
@@ -75425,7 +75424,7 @@
     </row>
     <row r="14" spans="1:13" ht="15.75">
       <c r="B14" s="16" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>263</v>
@@ -75479,12 +75478,12 @@
       <c r="K15" s="64"/>
       <c r="L15" s="57"/>
       <c r="M15" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75">
       <c r="B16" s="32" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C16" s="72" t="s">
         <v>263</v>
@@ -75511,12 +75510,12 @@
       <c r="K16" s="64"/>
       <c r="L16" s="57"/>
       <c r="M16" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75">
       <c r="B17" s="93" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C17" s="72" t="s">
         <v>263</v>
@@ -75543,12 +75542,12 @@
       <c r="K17" s="64"/>
       <c r="L17" s="57"/>
       <c r="M17" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75">
       <c r="B18" s="93" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C18" s="72" t="s">
         <v>263</v>
@@ -75573,12 +75572,12 @@
       <c r="K18" s="64"/>
       <c r="L18" s="57"/>
       <c r="M18" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75">
       <c r="B19" s="93" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C19" s="72" t="s">
         <v>263</v>
@@ -75603,12 +75602,12 @@
       <c r="K19" s="64"/>
       <c r="L19" s="57"/>
       <c r="M19" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75">
       <c r="B20" s="93" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>263</v>
@@ -75638,7 +75637,7 @@
     </row>
     <row r="21" spans="1:13" ht="15.75">
       <c r="B21" s="93" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>263</v>
@@ -75658,12 +75657,12 @@
       <c r="K21" s="63"/>
       <c r="L21" s="12"/>
       <c r="M21" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75">
       <c r="B22" s="93" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>263</v>
@@ -75698,7 +75697,7 @@
     </row>
     <row r="23" spans="1:13" ht="15.75">
       <c r="B23" s="93" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>263</v>
@@ -75733,7 +75732,7 @@
     </row>
     <row r="24" spans="1:13" ht="15.75">
       <c r="B24" s="93" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>263</v>
@@ -75768,7 +75767,7 @@
     </row>
     <row r="25" spans="1:13" ht="15.75">
       <c r="B25" s="93" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>263</v>
@@ -75801,12 +75800,12 @@
         <v>32</v>
       </c>
       <c r="M25" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75">
       <c r="B26" s="93" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>263</v>
@@ -75839,12 +75838,12 @@
         <v>32</v>
       </c>
       <c r="M26" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75">
       <c r="B27" s="93" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>263</v>
@@ -75877,12 +75876,12 @@
         <v>32</v>
       </c>
       <c r="M27" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75">
       <c r="B28" s="93" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>263</v>
@@ -75914,7 +75913,7 @@
     <row r="29" spans="1:13" ht="15.75"/>
     <row r="30" spans="1:13" ht="15.75">
       <c r="A30" s="38" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="K30" s="108">
         <v>16053</v>
@@ -75925,7 +75924,7 @@
     </row>
     <row r="31" spans="1:13" ht="15.75">
       <c r="B31" s="16" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>263</v>
@@ -76030,7 +76029,7 @@
     </row>
     <row r="34" spans="2:13" ht="15.75">
       <c r="B34" s="16" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>263</v>
@@ -76065,7 +76064,7 @@
     </row>
     <row r="35" spans="2:13" ht="15.75">
       <c r="B35" s="16" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>263</v>
@@ -76100,7 +76099,7 @@
     </row>
     <row r="36" spans="2:13" ht="15.75">
       <c r="B36" s="16" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>263</v>
@@ -76133,12 +76132,12 @@
         <v>32</v>
       </c>
       <c r="M36" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="15.75">
       <c r="B37" s="16" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>263</v>
@@ -76171,12 +76170,12 @@
         <v>32</v>
       </c>
       <c r="M37" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="38" spans="2:13" ht="15.75">
       <c r="B38" s="16" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>263</v>
@@ -76209,12 +76208,12 @@
         <v>32</v>
       </c>
       <c r="M38" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="15.75">
       <c r="B39" s="16" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>263</v>
@@ -76247,12 +76246,12 @@
         <v>32</v>
       </c>
       <c r="M39" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="40" spans="2:13" ht="15.75">
       <c r="B40" s="16" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>263</v>
@@ -76285,12 +76284,12 @@
         <v>32</v>
       </c>
       <c r="M40" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="41" spans="2:13" ht="15.75">
       <c r="B41" s="16" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>263</v>
@@ -76323,12 +76322,12 @@
         <v>32</v>
       </c>
       <c r="M41" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="42" spans="2:13" ht="15.75">
       <c r="B42" s="16" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>263</v>
@@ -76361,12 +76360,12 @@
         <v>32</v>
       </c>
       <c r="M42" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="43" spans="2:13" ht="15.75">
       <c r="B43" s="16" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C43" s="72"/>
       <c r="D43" s="72" t="s">
@@ -76385,7 +76384,7 @@
       <c r="K43" s="64"/>
       <c r="L43" s="57"/>
       <c r="M43" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="44" spans="2:13" ht="15.75">
@@ -76421,7 +76420,7 @@
     </row>
     <row r="45" spans="2:13" ht="15.75">
       <c r="B45" s="16" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>263</v>
@@ -76456,7 +76455,7 @@
     </row>
     <row r="46" spans="2:13" ht="15.75">
       <c r="B46" s="16" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>263</v>
@@ -76491,7 +76490,7 @@
     </row>
     <row r="47" spans="2:13" ht="15.75">
       <c r="B47" s="16" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C47" s="72"/>
       <c r="D47" s="72"/>
@@ -76504,12 +76503,12 @@
       <c r="K47" s="64"/>
       <c r="L47" s="57"/>
       <c r="M47" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="15.75">
       <c r="B48" s="16" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C48" s="72"/>
       <c r="D48" s="72"/>
@@ -76522,12 +76521,12 @@
       <c r="K48" s="64"/>
       <c r="L48" s="57"/>
       <c r="M48" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.75">
       <c r="B49" s="16" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C49" s="72"/>
       <c r="D49" s="72"/>
@@ -76540,7 +76539,7 @@
       <c r="K49" s="64"/>
       <c r="L49" s="57"/>
       <c r="M49" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75">
@@ -76624,7 +76623,7 @@
     </row>
     <row r="53" spans="1:13" ht="15.75">
       <c r="A53" s="38" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="K53" s="108">
         <v>16053</v>
@@ -76668,7 +76667,7 @@
     </row>
     <row r="55" spans="1:13" ht="15.75">
       <c r="B55" s="16" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>263</v>
@@ -76703,7 +76702,7 @@
     </row>
     <row r="56" spans="1:13" ht="15.75">
       <c r="B56" s="16" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>263</v>
@@ -76738,7 +76737,7 @@
     </row>
     <row r="57" spans="1:13" ht="15.75">
       <c r="B57" s="16" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>263</v>
@@ -76808,7 +76807,7 @@
     </row>
     <row r="60" spans="1:13" ht="15.75">
       <c r="A60" s="38" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="K60" s="108">
         <v>16053</v>
@@ -76851,7 +76850,7 @@
     </row>
     <row r="62" spans="1:13" ht="15.75">
       <c r="B62" s="16" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>263</v>
@@ -76921,7 +76920,7 @@
     </row>
     <row r="64" spans="1:13" ht="15.75">
       <c r="B64" s="16" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>263</v>
@@ -76954,12 +76953,12 @@
         <v>32</v>
       </c>
       <c r="M64" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="15.75">
       <c r="B65" s="16" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>263</v>
@@ -76994,7 +76993,7 @@
     </row>
     <row r="66" spans="1:13" ht="15.75">
       <c r="B66" s="16" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>263</v>
@@ -77030,7 +77029,7 @@
     <row r="67" spans="1:13" ht="15.75"/>
     <row r="68" spans="1:13" ht="15.75">
       <c r="A68" s="38" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="K68" s="108">
         <v>16053</v>
@@ -77038,7 +77037,7 @@
     </row>
     <row r="69" spans="1:13" ht="15.75">
       <c r="B69" s="16" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>263</v>
@@ -77073,7 +77072,7 @@
     </row>
     <row r="70" spans="1:13" ht="15.75">
       <c r="B70" s="16" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>263</v>
@@ -77108,7 +77107,7 @@
     </row>
     <row r="71" spans="1:13" ht="15.75">
       <c r="B71" s="16" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>263</v>
@@ -77143,7 +77142,7 @@
     </row>
     <row r="73" spans="1:13" ht="15.75">
       <c r="A73" s="38" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="K73" s="108">
         <v>16053</v>
@@ -77151,10 +77150,10 @@
     </row>
     <row r="74" spans="1:13" ht="15.75">
       <c r="B74" s="16" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C74" s="36" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>263</v>
@@ -77189,10 +77188,10 @@
     </row>
     <row r="75" spans="1:13" ht="15.75">
       <c r="B75" s="16" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C75" s="36" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>263</v>
@@ -77224,10 +77223,10 @@
     </row>
     <row r="76" spans="1:13" ht="15.75">
       <c r="B76" s="16" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C76" s="36" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>263</v>
@@ -77477,15 +77476,15 @@
     </row>
     <row r="10" spans="1:13" ht="15.75">
       <c r="A10" s="1" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75">
       <c r="A11" s="44" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>30</v>
@@ -77518,7 +77517,7 @@
     </row>
     <row r="12" spans="1:13" ht="15.75">
       <c r="B12" s="16" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>30</v>
@@ -77551,7 +77550,7 @@
     </row>
     <row r="13" spans="1:13" ht="15.75">
       <c r="B13" s="16" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>30</v>
@@ -77584,7 +77583,7 @@
     </row>
     <row r="14" spans="1:13" ht="15.75">
       <c r="B14" s="16" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>30</v>
@@ -77617,7 +77616,7 @@
     </row>
     <row r="15" spans="1:13" ht="15.75">
       <c r="B15" s="16" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>30</v>
@@ -77650,7 +77649,7 @@
     </row>
     <row r="16" spans="1:13" ht="15.75">
       <c r="B16" s="16" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>30</v>
@@ -77686,7 +77685,7 @@
         <v>192</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>30</v>
@@ -77713,11 +77712,11 @@
         <v>30</v>
       </c>
       <c r="K17" s="71" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="L17" s="72"/>
       <c r="M17" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75">
@@ -77725,7 +77724,7 @@
         <v>192</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>30</v>
@@ -77752,7 +77751,7 @@
         <v>30</v>
       </c>
       <c r="K18" s="71" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="L18" s="72"/>
     </row>
@@ -77764,17 +77763,17 @@
     </row>
     <row r="20" spans="1:13" ht="15.75">
       <c r="A20" s="38" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B20" s="98"/>
       <c r="M20" s="107" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75">
       <c r="A21" s="44"/>
       <c r="B21" s="32" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>200</v>
@@ -77807,13 +77806,13 @@
         <v>32</v>
       </c>
       <c r="M21" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75">
       <c r="A22" s="44"/>
       <c r="B22" s="32" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>200</v>
@@ -77846,13 +77845,13 @@
         <v>32</v>
       </c>
       <c r="M22" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75">
       <c r="A23" s="44"/>
       <c r="B23" s="32" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>200</v>
@@ -77888,7 +77887,7 @@
     <row r="24" spans="1:13" ht="15.75">
       <c r="A24" s="44"/>
       <c r="B24" s="32" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>200</v>
@@ -77924,7 +77923,7 @@
     <row r="25" spans="1:13" ht="15.75">
       <c r="A25" s="44"/>
       <c r="B25" s="32" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>200</v>
@@ -77960,7 +77959,7 @@
     <row r="26" spans="1:13" ht="15.75">
       <c r="A26" s="44"/>
       <c r="B26" s="32" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>200</v>
@@ -77998,7 +77997,7 @@
         <v>192</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>200</v>
@@ -78032,7 +78031,7 @@
         <v>192</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>200</v>
@@ -78063,12 +78062,12 @@
     </row>
     <row r="30" spans="1:13" ht="15.75">
       <c r="A30" s="1" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75">
       <c r="B31" s="16" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>30</v>
@@ -78103,7 +78102,7 @@
     </row>
     <row r="32" spans="1:13" ht="15.75">
       <c r="B32" s="16" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>30</v>
@@ -78138,7 +78137,7 @@
     </row>
     <row r="33" spans="1:12" ht="15.75">
       <c r="B33" s="16" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>30</v>
@@ -78173,7 +78172,7 @@
     </row>
     <row r="34" spans="1:12" ht="15.75">
       <c r="B34" s="16" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>30</v>
@@ -78208,7 +78207,7 @@
     </row>
     <row r="35" spans="1:12" ht="15.75">
       <c r="B35" s="16" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>30</v>
@@ -78243,7 +78242,7 @@
     </row>
     <row r="36" spans="1:12" ht="15.75">
       <c r="B36" s="16" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>30</v>
@@ -78278,7 +78277,7 @@
     </row>
     <row r="37" spans="1:12" ht="15.75">
       <c r="B37" s="16" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>30</v>
@@ -78313,7 +78312,7 @@
     </row>
     <row r="38" spans="1:12" ht="15.75">
       <c r="B38" s="16" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>30</v>
@@ -78351,12 +78350,12 @@
     </row>
     <row r="40" spans="1:12" ht="15.75">
       <c r="A40" s="1" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75">
       <c r="B41" s="16" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>30</v>
@@ -78391,7 +78390,7 @@
     </row>
     <row r="42" spans="1:12" ht="15.75">
       <c r="B42" s="16" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>30</v>
@@ -78426,7 +78425,7 @@
     </row>
     <row r="43" spans="1:12" ht="15.75">
       <c r="B43" s="16" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>30</v>
@@ -78461,12 +78460,12 @@
     </row>
     <row r="45" spans="1:12" ht="15.75">
       <c r="A45" s="1" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75">
       <c r="B46" s="16" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>30</v>
@@ -78498,7 +78497,7 @@
     </row>
     <row r="47" spans="1:12" ht="15.75">
       <c r="B47" s="16" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>30</v>
@@ -78531,7 +78530,7 @@
     </row>
     <row r="48" spans="1:12" ht="15.75">
       <c r="B48" s="16" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>30</v>
@@ -78938,15 +78937,15 @@
     </row>
     <row r="10" spans="1:13" ht="15.75">
       <c r="A10" s="1" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="M10" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75">
       <c r="B11" s="16" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>30</v>
@@ -78958,7 +78957,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -78982,10 +78981,10 @@
     <row r="12" spans="1:13" ht="15.75">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
@@ -78994,7 +78993,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>30</v>
@@ -79029,7 +79028,7 @@
         <v>30</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>30</v>
@@ -79065,7 +79064,7 @@
         <v>30</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>30</v>
@@ -79100,7 +79099,7 @@
         <v>30</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>30</v>
@@ -79124,19 +79123,19 @@
     <row r="16" spans="1:13" ht="15.75">
       <c r="A16" s="1"/>
       <c r="B16" s="32" t="s">
+        <v>685</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="36" t="s">
         <v>682</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>679</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>30</v>
@@ -79162,7 +79161,7 @@
     </row>
     <row r="17" spans="1:12" ht="15.75">
       <c r="B17" s="16" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>30</v>
@@ -79174,7 +79173,7 @@
         <v>30</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -79207,10 +79206,10 @@
         <v>30</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>30</v>
@@ -79233,19 +79232,19 @@
     </row>
     <row r="19" spans="1:12" ht="15.75">
       <c r="B19" s="16" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>30</v>
@@ -79281,7 +79280,7 @@
         <v>30</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -79302,7 +79301,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75">
       <c r="B21" s="16" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>30</v>
@@ -79314,7 +79313,7 @@
         <v>30</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>30</v>
@@ -79335,7 +79334,7 @@
     </row>
     <row r="22" spans="1:12" ht="15.75">
       <c r="B22" s="16" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>30</v>
@@ -79370,7 +79369,7 @@
     </row>
     <row r="23" spans="1:12" ht="15.75">
       <c r="B23" s="16" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>30</v>
@@ -79405,7 +79404,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75">
       <c r="B24" s="16" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>30</v>
@@ -79417,7 +79416,7 @@
         <v>30</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>30</v>
@@ -79432,7 +79431,7 @@
         <v>30</v>
       </c>
       <c r="K24" s="66" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>32</v>
@@ -79440,7 +79439,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75">
       <c r="B25" s="16" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>30</v>
@@ -79452,7 +79451,7 @@
         <v>30</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>30</v>
@@ -79467,7 +79466,7 @@
         <v>30</v>
       </c>
       <c r="K25" s="66" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>32</v>
@@ -79487,7 +79486,7 @@
         <v>30</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>30</v>
@@ -79522,7 +79521,7 @@
         <v>30</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>30</v>
@@ -79537,7 +79536,7 @@
         <v>30</v>
       </c>
       <c r="K27" s="66" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>32</v>
@@ -79545,7 +79544,7 @@
     </row>
     <row r="28" spans="1:12" ht="15.75">
       <c r="B28" s="16" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>30</v>
@@ -79557,7 +79556,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>30</v>
@@ -79572,7 +79571,7 @@
         <v>30</v>
       </c>
       <c r="K28" s="66" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>32</v>
@@ -79580,34 +79579,34 @@
     </row>
     <row r="29" spans="1:12" ht="15.75">
       <c r="B29" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="66" t="s">
         <v>693</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>679</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29" s="66" t="s">
-        <v>690</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>32</v>
@@ -79615,10 +79614,10 @@
     </row>
     <row r="30" spans="1:12" ht="15.75">
       <c r="B30" s="39" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>30</v>
@@ -79627,7 +79626,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>30</v>
@@ -79642,7 +79641,7 @@
         <v>30</v>
       </c>
       <c r="K30" s="66" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>32</v>
@@ -79650,10 +79649,10 @@
     </row>
     <row r="31" spans="1:12" ht="15.75">
       <c r="B31" s="39" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>30</v>
@@ -79662,7 +79661,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>30</v>
@@ -79677,7 +79676,7 @@
         <v>30</v>
       </c>
       <c r="K31" s="66" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>32</v>
@@ -79685,7 +79684,7 @@
     </row>
     <row r="32" spans="1:12" ht="15.75">
       <c r="B32" s="16" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>30</v>
@@ -79697,7 +79696,7 @@
         <v>30</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>30</v>
@@ -79712,7 +79711,7 @@
         <v>30</v>
       </c>
       <c r="K32" s="66" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>32</v>
@@ -79720,7 +79719,7 @@
     </row>
     <row r="33" spans="1:13" ht="15.75">
       <c r="B33" s="16" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>30</v>
@@ -79732,7 +79731,7 @@
         <v>30</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>30</v>
@@ -79747,7 +79746,7 @@
         <v>30</v>
       </c>
       <c r="K33" s="66" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>32</v>
@@ -79755,7 +79754,7 @@
     </row>
     <row r="34" spans="1:13" ht="15.75">
       <c r="B34" s="16" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>30</v>
@@ -79767,7 +79766,7 @@
         <v>30</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>30</v>
@@ -79782,7 +79781,7 @@
         <v>30</v>
       </c>
       <c r="K34" s="66" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>32</v>
@@ -79790,7 +79789,7 @@
     </row>
     <row r="35" spans="1:13" ht="15.75">
       <c r="B35" s="16" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>30</v>
@@ -79799,10 +79798,10 @@
         <v>30</v>
       </c>
       <c r="E35" s="90" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>30</v>
@@ -79817,7 +79816,7 @@
         <v>30</v>
       </c>
       <c r="K35" s="66" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>32</v>
@@ -79825,7 +79824,7 @@
     </row>
     <row r="36" spans="1:13" ht="15.75">
       <c r="B36" s="16" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>30</v>
@@ -79852,12 +79851,12 @@
         <v>30</v>
       </c>
       <c r="K36" s="66" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75">
       <c r="B37" s="16" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>30</v>
@@ -79884,12 +79883,12 @@
         <v>30</v>
       </c>
       <c r="K37" s="66" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75">
       <c r="B38" s="16" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>30</v>
@@ -79916,12 +79915,12 @@
         <v>30</v>
       </c>
       <c r="K38" s="66" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75">
       <c r="B39" s="16" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>30</v>
@@ -79948,13 +79947,13 @@
         <v>30</v>
       </c>
       <c r="K39" s="66" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="L39" s="107"/>
     </row>
     <row r="40" spans="1:13" ht="15.75">
       <c r="B40" s="16" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>30</v>
@@ -79966,7 +79965,7 @@
         <v>30</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>30</v>
@@ -79981,12 +79980,12 @@
         <v>30</v>
       </c>
       <c r="K40" s="66" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75">
       <c r="B41" s="16" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>30</v>
@@ -80013,7 +80012,7 @@
         <v>30</v>
       </c>
       <c r="K41" s="66" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>32</v>
@@ -80021,10 +80020,10 @@
     </row>
     <row r="42" spans="1:13" ht="15.75">
       <c r="B42" s="105" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>155</v>
@@ -80056,10 +80055,10 @@
     </row>
     <row r="43" spans="1:13" ht="15.75">
       <c r="A43" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="B43" s="93" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>78</v>
@@ -80097,7 +80096,7 @@
     </row>
     <row r="44" spans="1:13" ht="15.75">
       <c r="B44" s="93" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>78</v>
@@ -80132,7 +80131,7 @@
     </row>
     <row r="45" spans="1:13" ht="15.75">
       <c r="B45" s="93" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>78</v>
@@ -80167,7 +80166,7 @@
     </row>
     <row r="46" spans="1:13" ht="15.75">
       <c r="B46" s="93" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>78</v>
@@ -80202,7 +80201,7 @@
     </row>
     <row r="47" spans="1:13" ht="15.75">
       <c r="B47" s="93" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>78</v>
@@ -80237,7 +80236,7 @@
     </row>
     <row r="48" spans="1:13" ht="15.75">
       <c r="B48" s="93" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>78</v>
@@ -80272,7 +80271,7 @@
     </row>
     <row r="49" spans="2:13" ht="15.75">
       <c r="B49" s="93" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>78</v>
@@ -80307,7 +80306,7 @@
     </row>
     <row r="50" spans="2:13" ht="15.75">
       <c r="B50" s="93" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>78</v>
@@ -80342,7 +80341,7 @@
     </row>
     <row r="51" spans="2:13" ht="15.75">
       <c r="B51" s="93" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>78</v>
@@ -80377,7 +80376,7 @@
     </row>
     <row r="52" spans="2:13" ht="15.75">
       <c r="B52" s="93" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>371</v>
@@ -80639,7 +80638,7 @@
     </row>
     <row r="10" spans="1:13" ht="15.75">
       <c r="A10" s="38" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75">
@@ -80749,7 +80748,7 @@
     </row>
     <row r="14" spans="1:13" ht="15.75">
       <c r="B14" s="16" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>102</v>
@@ -80767,7 +80766,7 @@
         <v>102</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>102</v>
@@ -80787,7 +80786,7 @@
     </row>
     <row r="15" spans="1:13" ht="15.75">
       <c r="B15" s="16" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>102</v>
@@ -80823,13 +80822,13 @@
     <row r="16" spans="1:13" ht="15.75"/>
     <row r="17" spans="1:13" ht="15.75">
       <c r="A17" s="1" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75">
       <c r="A18" s="17"/>
       <c r="B18" s="16" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>289</v>
@@ -80865,7 +80864,7 @@
     <row r="19" spans="1:13" ht="15.75">
       <c r="A19" s="17"/>
       <c r="B19" s="16" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>289</v>
@@ -80874,7 +80873,7 @@
         <v>289</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>289</v>
@@ -80886,13 +80885,13 @@
         <v>289</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="K19" s="66" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>32</v>
@@ -80901,7 +80900,7 @@
     <row r="20" spans="1:13" ht="15.75">
       <c r="A20" s="17"/>
       <c r="B20" s="16" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>289</v>
@@ -80910,7 +80909,7 @@
         <v>289</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>289</v>
@@ -80922,10 +80921,10 @@
         <v>289</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="K20" s="66" t="s">
         <v>31</v>
@@ -80934,13 +80933,13 @@
         <v>32</v>
       </c>
       <c r="M20" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75">
       <c r="A21" s="17"/>
       <c r="B21" s="16" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>289</v>
@@ -80949,7 +80948,7 @@
         <v>289</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>289</v>
@@ -80961,10 +80960,10 @@
         <v>289</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="K21" s="61" t="s">
         <v>31</v>
@@ -80976,7 +80975,7 @@
     <row r="22" spans="1:13" ht="15.75">
       <c r="A22" s="17"/>
       <c r="B22" s="32" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>165</v>
@@ -80985,7 +80984,7 @@
         <v>165</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>165</v>
@@ -80997,13 +80996,13 @@
         <v>165</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="J22" s="20" t="s">
         <v>165</v>
       </c>
       <c r="K22" s="66" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>32</v>
@@ -81012,7 +81011,7 @@
     <row r="23" spans="1:13" ht="15.75">
       <c r="A23" s="17"/>
       <c r="B23" s="32" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>158</v>
@@ -81051,7 +81050,7 @@
     <row r="24" spans="1:13" ht="15.75">
       <c r="A24" s="17"/>
       <c r="B24" s="32" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>158</v>
@@ -81087,7 +81086,7 @@
     <row r="25" spans="1:13" ht="15.75">
       <c r="A25" s="17"/>
       <c r="B25" s="32" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>158</v>
@@ -81120,13 +81119,13 @@
         <v>32</v>
       </c>
       <c r="M25" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75">
       <c r="A26" s="17"/>
       <c r="B26" s="39" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>78</v>
@@ -81156,12 +81155,12 @@
     <row r="27" spans="1:13" ht="15.75"/>
     <row r="28" spans="1:13" ht="15.75">
       <c r="A28" s="1" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75">
       <c r="B29" s="16" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>30</v>
@@ -81196,7 +81195,7 @@
     </row>
     <row r="30" spans="1:13" ht="15.75">
       <c r="B30" s="16" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>30</v>
@@ -81231,7 +81230,7 @@
     </row>
     <row r="31" spans="1:13" ht="15.75">
       <c r="B31" s="16" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>30</v>
@@ -81266,7 +81265,7 @@
     </row>
     <row r="32" spans="1:13" ht="15.75">
       <c r="B32" s="16" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>30</v>
@@ -81301,7 +81300,7 @@
     </row>
     <row r="33" spans="1:13" ht="15.75">
       <c r="B33" s="16" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>30</v>
@@ -81336,7 +81335,7 @@
     </row>
     <row r="34" spans="1:13" ht="15.75">
       <c r="B34" s="16" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>30</v>
@@ -81371,7 +81370,7 @@
     </row>
     <row r="35" spans="1:13" ht="15.75">
       <c r="B35" s="16" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>30</v>
@@ -81406,7 +81405,7 @@
     </row>
     <row r="36" spans="1:13" ht="15.75">
       <c r="B36" s="16" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>30</v>
@@ -81441,7 +81440,7 @@
     </row>
     <row r="37" spans="1:13" ht="15.75">
       <c r="B37" s="32" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>223</v>
@@ -81479,7 +81478,7 @@
     </row>
     <row r="39" spans="1:13" ht="15.75">
       <c r="A39" s="1" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="L39" s="107"/>
     </row>
@@ -81590,7 +81589,7 @@
     </row>
     <row r="43" spans="1:13" ht="15.75">
       <c r="B43" s="16" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>30</v>
@@ -81625,7 +81624,7 @@
     </row>
     <row r="44" spans="1:13" ht="15.75">
       <c r="B44" s="16" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>30</v>
@@ -81660,7 +81659,7 @@
     </row>
     <row r="45" spans="1:13" ht="15.75">
       <c r="B45" s="32" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>223</v>
@@ -81698,7 +81697,7 @@
     </row>
     <row r="46" spans="1:13" ht="15.75">
       <c r="B46" s="32" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>223</v>
@@ -81733,7 +81732,7 @@
     </row>
     <row r="47" spans="1:13" ht="15.75">
       <c r="B47" s="32" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>223</v>
@@ -81770,7 +81769,7 @@
     </row>
     <row r="49" spans="1:14" ht="15.75">
       <c r="A49" s="1" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="L49" s="107"/>
     </row>
@@ -81814,23 +81813,23 @@
     </row>
     <row r="52" spans="1:14" ht="15.75">
       <c r="A52" s="17" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="M52">
         <v>19212</v>
       </c>
       <c r="N52" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="15.75">
       <c r="B53" s="95" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="B54" s="95" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="67" ht="15.75"/>
@@ -82010,21 +82009,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F9DF973880600B488549A76AE06F4E2C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6cb30a5fe4e3d4f94d4e28efe0d24b6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e15bbd37-58c9-4429-a9ec-5bc419842533" xmlns:ns3="88ddcd4f-19ba-453d-aecf-103d2e65de8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b67d21030a522ad04f5804de8eac6af" ns2:_="" ns3:_="">
     <xsd:import namespace="e15bbd37-58c9-4429-a9ec-5bc419842533"/>
@@ -82241,8 +82225,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9DD54F0-681D-4E47-A71C-E19CD0504E27}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{142F73F4-C24B-49BE-B3E5-3087748A64B4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -82250,5 +82249,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{142F73F4-C24B-49BE-B3E5-3087748A64B4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9DD54F0-681D-4E47-A71C-E19CD0504E27}"/>
 </file>